--- a/Avwap_Tarama_050126.xlsx
+++ b/Avwap_Tarama_050126.xlsx
@@ -675,19 +675,19 @@
         <v>62</v>
       </c>
       <c r="C2">
-        <v>12.85</v>
+        <v>12.82</v>
       </c>
       <c r="D2">
-        <v>0.16</v>
+        <v>-0.08</v>
       </c>
       <c r="E2">
-        <v>-76.19</v>
+        <v>-75.54000000000001</v>
       </c>
       <c r="F2">
-        <v>65.44</v>
+        <v>65.11</v>
       </c>
       <c r="G2">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="J2">
         <v>12.53</v>
@@ -716,16 +716,16 @@
         <v>62</v>
       </c>
       <c r="C3">
-        <v>29.6</v>
+        <v>29.62</v>
       </c>
       <c r="D3">
-        <v>-0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-23.41</v>
+        <v>-23.12</v>
       </c>
       <c r="F3">
-        <v>51.46</v>
+        <v>51.64</v>
       </c>
       <c r="G3">
         <v>0.06</v>
@@ -752,7 +752,7 @@
         <v>29.63</v>
       </c>
       <c r="O3">
-        <v>29.15</v>
+        <v>29.16</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -763,19 +763,19 @@
         <v>62</v>
       </c>
       <c r="C4">
-        <v>104.3</v>
+        <v>104</v>
       </c>
       <c r="D4">
-        <v>5.25</v>
+        <v>4.94</v>
       </c>
       <c r="E4">
-        <v>440.47</v>
+        <v>449.38</v>
       </c>
       <c r="F4">
-        <v>57.87</v>
+        <v>57.25</v>
       </c>
       <c r="G4">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
@@ -784,22 +784,22 @@
         <v>76</v>
       </c>
       <c r="J4">
-        <v>113.49</v>
+        <v>113.48</v>
       </c>
       <c r="K4">
-        <v>106.21</v>
+        <v>106.19</v>
       </c>
       <c r="L4">
-        <v>101.69</v>
+        <v>101.64</v>
       </c>
       <c r="M4">
-        <v>106.63</v>
+        <v>106.61</v>
       </c>
       <c r="N4">
-        <v>102.01</v>
+        <v>101.97</v>
       </c>
       <c r="O4">
-        <v>102.07</v>
+        <v>101.89</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -810,16 +810,16 @@
         <v>62</v>
       </c>
       <c r="C5">
-        <v>34.88</v>
+        <v>34.9</v>
       </c>
       <c r="D5">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="E5">
-        <v>-15.97</v>
+        <v>-15.85</v>
       </c>
       <c r="F5">
-        <v>66.04000000000001</v>
+        <v>66.12</v>
       </c>
       <c r="G5">
         <v>0.41</v>
@@ -863,7 +863,7 @@
         <v>-1.3</v>
       </c>
       <c r="E6">
-        <v>-18.24</v>
+        <v>-18.03</v>
       </c>
       <c r="F6">
         <v>33.49</v>
@@ -898,19 +898,19 @@
         <v>62</v>
       </c>
       <c r="C7">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="D7">
-        <v>-1.07</v>
+        <v>-0.85</v>
       </c>
       <c r="E7">
-        <v>-36.28</v>
+        <v>-35.62</v>
       </c>
       <c r="F7">
-        <v>43.25</v>
+        <v>43.67</v>
       </c>
       <c r="G7">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="J7">
         <v>47.52</v>
@@ -919,7 +919,7 @@
         <v>46.14</v>
       </c>
       <c r="L7">
-        <v>45.53</v>
+        <v>45.54</v>
       </c>
       <c r="M7">
         <v>47.64</v>
@@ -928,7 +928,7 @@
         <v>46.37</v>
       </c>
       <c r="O7">
-        <v>45.55</v>
+        <v>45.56</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -939,16 +939,16 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>16.1</v>
+        <v>16.07</v>
       </c>
       <c r="D8">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E8">
-        <v>-46.35</v>
+        <v>-45.82</v>
       </c>
       <c r="F8">
-        <v>54.3</v>
+        <v>53.85</v>
       </c>
       <c r="G8">
         <v>-0.08</v>
@@ -960,7 +960,7 @@
         <v>15.58</v>
       </c>
       <c r="L8">
-        <v>16.16</v>
+        <v>16.15</v>
       </c>
       <c r="M8">
         <v>15.01</v>
@@ -986,7 +986,7 @@
         <v>-0.15</v>
       </c>
       <c r="E9">
-        <v>-74.58</v>
+        <v>-74.06</v>
       </c>
       <c r="F9">
         <v>46.76</v>
@@ -1027,19 +1027,19 @@
         <v>62</v>
       </c>
       <c r="C10">
-        <v>211.7</v>
+        <v>211.4</v>
       </c>
       <c r="D10">
-        <v>-1.76</v>
+        <v>-1.9</v>
       </c>
       <c r="E10">
-        <v>-74.39</v>
+        <v>-74.11</v>
       </c>
       <c r="F10">
-        <v>46.28</v>
+        <v>46.02</v>
       </c>
       <c r="G10">
-        <v>-0.67</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="J10">
         <v>192.69</v>
@@ -1048,7 +1048,7 @@
         <v>210.52</v>
       </c>
       <c r="L10">
-        <v>217</v>
+        <v>216.98</v>
       </c>
       <c r="M10">
         <v>189.35</v>
@@ -1057,7 +1057,7 @@
         <v>198.56</v>
       </c>
       <c r="O10">
-        <v>217.7</v>
+        <v>217.69</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1068,16 +1068,16 @@
         <v>62</v>
       </c>
       <c r="C11">
-        <v>29.7</v>
+        <v>29.72</v>
       </c>
       <c r="D11">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="E11">
-        <v>-35.84</v>
+        <v>-33.53</v>
       </c>
       <c r="F11">
-        <v>61.48</v>
+        <v>61.64</v>
       </c>
       <c r="G11">
         <v>-0.07000000000000001</v>
@@ -1109,16 +1109,16 @@
         <v>62</v>
       </c>
       <c r="C12">
-        <v>6.25</v>
+        <v>6.23</v>
       </c>
       <c r="D12">
-        <v>-1.11</v>
+        <v>-1.42</v>
       </c>
       <c r="E12">
-        <v>-75.8</v>
+        <v>-75.51000000000001</v>
       </c>
       <c r="F12">
-        <v>38.67</v>
+        <v>38.31</v>
       </c>
       <c r="G12">
         <v>-0.05</v>
@@ -1133,7 +1133,7 @@
         <v>6.44</v>
       </c>
       <c r="M12">
-        <v>7.1</v>
+        <v>7.09</v>
       </c>
       <c r="N12">
         <v>7.03</v>
@@ -1156,7 +1156,7 @@
         <v>-1.6</v>
       </c>
       <c r="E13">
-        <v>-51.46</v>
+        <v>-51.36</v>
       </c>
       <c r="F13">
         <v>30.38</v>
@@ -1197,7 +1197,7 @@
         <v>4.33</v>
       </c>
       <c r="E14">
-        <v>-44.67</v>
+        <v>-44.47</v>
       </c>
       <c r="F14">
         <v>65.87</v>
@@ -1238,7 +1238,7 @@
         <v>-0.54</v>
       </c>
       <c r="E15">
-        <v>-32.43</v>
+        <v>-32.15</v>
       </c>
       <c r="F15">
         <v>67.68000000000001</v>
@@ -1273,28 +1273,28 @@
         <v>62</v>
       </c>
       <c r="C16">
-        <v>158.8</v>
+        <v>158.6</v>
       </c>
       <c r="D16">
-        <v>-1.85</v>
+        <v>-1.98</v>
       </c>
       <c r="E16">
-        <v>-31.21</v>
+        <v>-31.09</v>
       </c>
       <c r="F16">
-        <v>61.18</v>
+        <v>60.84</v>
       </c>
       <c r="G16">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="J16">
-        <v>138.65</v>
+        <v>138.64</v>
       </c>
       <c r="K16">
         <v>141.15</v>
       </c>
       <c r="L16">
-        <v>162.2</v>
+        <v>162.18</v>
       </c>
       <c r="M16">
         <v>138.57</v>
@@ -1314,16 +1314,16 @@
         <v>62</v>
       </c>
       <c r="C17">
-        <v>11.31</v>
+        <v>11.32</v>
       </c>
       <c r="D17">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="E17">
-        <v>-13.37</v>
+        <v>-12.92</v>
       </c>
       <c r="F17">
-        <v>48.49</v>
+        <v>48.64</v>
       </c>
       <c r="G17">
         <v>-0.06</v>
@@ -1361,7 +1361,7 @@
         <v>-0.39</v>
       </c>
       <c r="E18">
-        <v>-38.66</v>
+        <v>-38.28</v>
       </c>
       <c r="F18">
         <v>34.68</v>
@@ -1396,16 +1396,16 @@
         <v>62</v>
       </c>
       <c r="C19">
-        <v>16.81</v>
+        <v>16.8</v>
       </c>
       <c r="D19">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="E19">
-        <v>-67.97</v>
+        <v>-67.79000000000001</v>
       </c>
       <c r="F19">
-        <v>46.62</v>
+        <v>46.41</v>
       </c>
       <c r="G19">
         <v>-0.04</v>
@@ -1443,7 +1443,7 @@
         <v>0.58</v>
       </c>
       <c r="E20">
-        <v>-68.76000000000001</v>
+        <v>-68.38</v>
       </c>
       <c r="F20">
         <v>49.53</v>
@@ -1484,7 +1484,7 @@
         <v>-0.1</v>
       </c>
       <c r="E21">
-        <v>-64.28</v>
+        <v>-63.94</v>
       </c>
       <c r="F21">
         <v>48.1</v>
@@ -1519,19 +1519,19 @@
         <v>62</v>
       </c>
       <c r="C22">
-        <v>69.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="D22">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="E22">
-        <v>-79.28</v>
+        <v>-79.11</v>
       </c>
       <c r="F22">
-        <v>64.16</v>
+        <v>64.31</v>
       </c>
       <c r="G22">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="J22">
         <v>50.74</v>
@@ -1540,7 +1540,7 @@
         <v>53.15</v>
       </c>
       <c r="L22">
-        <v>64.53</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="M22">
         <v>50.92</v>
@@ -1560,37 +1560,37 @@
         <v>62</v>
       </c>
       <c r="C23">
-        <v>23.94</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>-1.4</v>
+        <v>-1.15</v>
       </c>
       <c r="E23">
-        <v>-79.62</v>
+        <v>-79.53</v>
       </c>
       <c r="F23">
-        <v>65.48</v>
+        <v>65.77</v>
       </c>
       <c r="G23">
         <v>0.5600000000000001</v>
       </c>
       <c r="J23">
-        <v>21.1</v>
+        <v>21.11</v>
       </c>
       <c r="K23">
-        <v>21.65</v>
+        <v>21.66</v>
       </c>
       <c r="L23">
         <v>22.03</v>
       </c>
       <c r="M23">
-        <v>21.57</v>
+        <v>21.58</v>
       </c>
       <c r="N23">
-        <v>21.95</v>
+        <v>21.96</v>
       </c>
       <c r="O23">
-        <v>22.43</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1607,7 +1607,7 @@
         <v>-1.08</v>
       </c>
       <c r="E24">
-        <v>-51.98</v>
+        <v>-51.97</v>
       </c>
       <c r="F24">
         <v>38.81</v>
@@ -1642,19 +1642,19 @@
         <v>62</v>
       </c>
       <c r="C25">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="D25">
-        <v>-0.38</v>
+        <v>-0.47</v>
       </c>
       <c r="E25">
-        <v>-65.47</v>
+        <v>-65.01000000000001</v>
       </c>
       <c r="F25">
-        <v>65.08</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="G25">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="J25">
         <v>99.78</v>
@@ -1689,7 +1689,7 @@
         <v>0.37</v>
       </c>
       <c r="E26">
-        <v>-55.72</v>
+        <v>-55.49</v>
       </c>
       <c r="F26">
         <v>53.34</v>
@@ -1730,19 +1730,19 @@
         <v>62</v>
       </c>
       <c r="C27">
-        <v>857.5</v>
+        <v>856.5</v>
       </c>
       <c r="D27">
-        <v>-1.27</v>
+        <v>-1.38</v>
       </c>
       <c r="E27">
-        <v>-46.01</v>
+        <v>-45.97</v>
       </c>
       <c r="F27">
-        <v>43.49</v>
+        <v>43.11</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="H27" t="s">
         <v>68</v>
@@ -1751,22 +1751,22 @@
         <v>77</v>
       </c>
       <c r="J27">
-        <v>919.33</v>
+        <v>919.3200000000001</v>
       </c>
       <c r="K27">
-        <v>884.97</v>
+        <v>884.95</v>
       </c>
       <c r="L27">
-        <v>866.92</v>
+        <v>866.88</v>
       </c>
       <c r="M27">
-        <v>900.42</v>
+        <v>900.41</v>
       </c>
       <c r="N27">
-        <v>868.47</v>
+        <v>868.45</v>
       </c>
       <c r="O27">
-        <v>855.46</v>
+        <v>855.28</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1777,19 +1777,19 @@
         <v>62</v>
       </c>
       <c r="C28">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D28">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="E28">
-        <v>-42.94</v>
+        <v>-42.84</v>
       </c>
       <c r="F28">
-        <v>42.41</v>
+        <v>42.79</v>
       </c>
       <c r="G28">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J28">
         <v>118.24</v>
@@ -1798,7 +1798,7 @@
         <v>117.83</v>
       </c>
       <c r="L28">
-        <v>105.32</v>
+        <v>105.33</v>
       </c>
       <c r="M28">
         <v>118.32</v>
@@ -1818,16 +1818,16 @@
         <v>62</v>
       </c>
       <c r="C29">
-        <v>41.14</v>
+        <v>41.1</v>
       </c>
       <c r="D29">
-        <v>-0.39</v>
+        <v>-0.48</v>
       </c>
       <c r="E29">
-        <v>-48.81</v>
+        <v>-48.53</v>
       </c>
       <c r="F29">
-        <v>40.11</v>
+        <v>39.89</v>
       </c>
       <c r="G29">
         <v>-0.19</v>
@@ -1839,7 +1839,7 @@
         <v>43.83</v>
       </c>
       <c r="L29">
-        <v>42.98</v>
+        <v>42.97</v>
       </c>
       <c r="M29">
         <v>43.85</v>
@@ -1859,19 +1859,19 @@
         <v>62</v>
       </c>
       <c r="C30">
-        <v>10.64</v>
+        <v>10.65</v>
       </c>
       <c r="D30">
-        <v>-1.3</v>
+        <v>-1.21</v>
       </c>
       <c r="E30">
-        <v>-65.95999999999999</v>
+        <v>-65.25</v>
       </c>
       <c r="F30">
-        <v>48.91</v>
+        <v>49.02</v>
       </c>
       <c r="G30">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="J30">
         <v>11.32</v>
@@ -1900,16 +1900,16 @@
         <v>62</v>
       </c>
       <c r="C31">
-        <v>18.24</v>
+        <v>18.28</v>
       </c>
       <c r="D31">
-        <v>-1.25</v>
+        <v>-1.03</v>
       </c>
       <c r="E31">
-        <v>-83.22</v>
+        <v>-83.09999999999999</v>
       </c>
       <c r="F31">
-        <v>57.51</v>
+        <v>58</v>
       </c>
       <c r="G31">
         <v>0.07000000000000001</v>
@@ -1921,7 +1921,7 @@
         <v>19.32</v>
       </c>
       <c r="L31">
-        <v>18.14</v>
+        <v>18.15</v>
       </c>
       <c r="M31">
         <v>19.66</v>
@@ -1941,19 +1941,19 @@
         <v>62</v>
       </c>
       <c r="C32">
-        <v>217.6</v>
+        <v>217.8</v>
       </c>
       <c r="D32">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="E32">
-        <v>-59.85</v>
+        <v>-59.67</v>
       </c>
       <c r="F32">
-        <v>69.08</v>
+        <v>69.13</v>
       </c>
       <c r="G32">
-        <v>-0.86</v>
+        <v>-0.84</v>
       </c>
       <c r="H32" t="s">
         <v>69</v>
@@ -1968,7 +1968,7 @@
         <v>111.88</v>
       </c>
       <c r="L32">
-        <v>212.15</v>
+        <v>212.16</v>
       </c>
       <c r="M32">
         <v>108.88</v>
@@ -1988,16 +1988,16 @@
         <v>62</v>
       </c>
       <c r="C33">
-        <v>105.92</v>
+        <v>105.95</v>
       </c>
       <c r="D33">
-        <v>4.63</v>
+        <v>4.66</v>
       </c>
       <c r="E33">
-        <v>-47.23</v>
+        <v>-46.44</v>
       </c>
       <c r="F33">
-        <v>82.45999999999999</v>
+        <v>82.47</v>
       </c>
       <c r="G33">
         <v>0.93</v>
@@ -2006,19 +2006,19 @@
         <v>69.76000000000001</v>
       </c>
       <c r="K33">
-        <v>79.36</v>
+        <v>79.37</v>
       </c>
       <c r="L33">
-        <v>85.55</v>
+        <v>85.56</v>
       </c>
       <c r="M33">
         <v>71.43000000000001</v>
       </c>
       <c r="N33">
-        <v>81.7</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="O33">
-        <v>88.12</v>
+        <v>88.13</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2029,16 +2029,16 @@
         <v>62</v>
       </c>
       <c r="C34">
-        <v>15.41</v>
+        <v>15.4</v>
       </c>
       <c r="D34">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="E34">
-        <v>84.09999999999999</v>
+        <v>84.48</v>
       </c>
       <c r="F34">
-        <v>55.15</v>
+        <v>55.03</v>
       </c>
       <c r="G34">
         <v>-0</v>
@@ -2082,7 +2082,7 @@
         <v>-0.83</v>
       </c>
       <c r="E35">
-        <v>-56.96</v>
+        <v>-56.72</v>
       </c>
       <c r="F35">
         <v>53.87</v>
@@ -2123,7 +2123,7 @@
         <v>-3.08</v>
       </c>
       <c r="E36">
-        <v>-69.78</v>
+        <v>-69.31</v>
       </c>
       <c r="F36">
         <v>46.62</v>
@@ -2164,16 +2164,16 @@
         <v>62</v>
       </c>
       <c r="C37">
-        <v>10.92</v>
+        <v>10.93</v>
       </c>
       <c r="D37">
-        <v>-0.73</v>
+        <v>-0.64</v>
       </c>
       <c r="E37">
-        <v>-46.2</v>
+        <v>-46.11</v>
       </c>
       <c r="F37">
-        <v>40.43</v>
+        <v>40.63</v>
       </c>
       <c r="G37">
         <v>-0.03</v>
@@ -2205,16 +2205,16 @@
         <v>62</v>
       </c>
       <c r="C38">
-        <v>96.75</v>
+        <v>96.7</v>
       </c>
       <c r="D38">
-        <v>-0.46</v>
+        <v>-0.51</v>
       </c>
       <c r="E38">
-        <v>-75.75</v>
+        <v>-75.43000000000001</v>
       </c>
       <c r="F38">
-        <v>40.2</v>
+        <v>40.11</v>
       </c>
       <c r="G38">
         <v>-1.17</v>
@@ -2252,7 +2252,7 @@
         <v>1.4</v>
       </c>
       <c r="E39">
-        <v>-28.04</v>
+        <v>-27.82</v>
       </c>
       <c r="F39">
         <v>48.55</v>
@@ -2299,7 +2299,7 @@
         <v>-1.47</v>
       </c>
       <c r="E40">
-        <v>-70.01000000000001</v>
+        <v>-69.76000000000001</v>
       </c>
       <c r="F40">
         <v>59.21</v>
@@ -2334,19 +2334,19 @@
         <v>62</v>
       </c>
       <c r="C41">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="D41">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
       <c r="E41">
-        <v>-47.83</v>
+        <v>-47.72</v>
       </c>
       <c r="F41">
-        <v>48.09</v>
+        <v>47.85</v>
       </c>
       <c r="G41">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="J41">
         <v>114.3</v>
@@ -2375,19 +2375,19 @@
         <v>62</v>
       </c>
       <c r="C42">
-        <v>37.36</v>
+        <v>37.2</v>
       </c>
       <c r="D42">
-        <v>6.02</v>
+        <v>5.56</v>
       </c>
       <c r="E42">
-        <v>-41.77</v>
+        <v>-40.88</v>
       </c>
       <c r="F42">
-        <v>62.84</v>
+        <v>62.4</v>
       </c>
       <c r="G42">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="J42">
         <v>32.03</v>
@@ -2396,7 +2396,7 @@
         <v>32.82</v>
       </c>
       <c r="L42">
-        <v>34.83</v>
+        <v>34.82</v>
       </c>
       <c r="M42">
         <v>31.94</v>
@@ -2416,19 +2416,19 @@
         <v>62</v>
       </c>
       <c r="C43">
-        <v>28.3</v>
+        <v>28.32</v>
       </c>
       <c r="D43">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="E43">
-        <v>-77.36</v>
+        <v>-77.13</v>
       </c>
       <c r="F43">
-        <v>58.32</v>
+        <v>58.46</v>
       </c>
       <c r="G43">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H43" t="s">
         <v>73</v>
@@ -2452,7 +2452,7 @@
         <v>27.49</v>
       </c>
       <c r="O43">
-        <v>27.98</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2463,19 +2463,19 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="D44">
-        <v>-3.17</v>
+        <v>-2.9</v>
       </c>
       <c r="E44">
-        <v>-69.26000000000001</v>
+        <v>-68.53</v>
       </c>
       <c r="F44">
-        <v>63.64</v>
+        <v>64.08</v>
       </c>
       <c r="G44">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H44" t="s">
         <v>74</v>
@@ -2510,16 +2510,16 @@
         <v>62</v>
       </c>
       <c r="C45">
-        <v>37.38</v>
+        <v>37.46</v>
       </c>
       <c r="D45">
-        <v>-1.63</v>
+        <v>-1.42</v>
       </c>
       <c r="E45">
-        <v>-64.40000000000001</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="F45">
-        <v>38.96</v>
+        <v>39.21</v>
       </c>
       <c r="G45">
         <v>-0.24</v>
@@ -2551,16 +2551,16 @@
         <v>62</v>
       </c>
       <c r="C46">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="D46">
-        <v>-2.07</v>
+        <v>-2.48</v>
       </c>
       <c r="E46">
-        <v>-61.09</v>
+        <v>-60.72</v>
       </c>
       <c r="F46">
-        <v>23.18</v>
+        <v>22.74</v>
       </c>
       <c r="G46">
         <v>-0.02</v>
@@ -2598,7 +2598,7 @@
         <v>1.37</v>
       </c>
       <c r="E47">
-        <v>-28.68</v>
+        <v>-25.28</v>
       </c>
       <c r="F47">
         <v>71.73</v>
@@ -2610,19 +2610,19 @@
         <v>104.17</v>
       </c>
       <c r="K47">
-        <v>104.26</v>
+        <v>104.27</v>
       </c>
       <c r="L47">
-        <v>106.9</v>
+        <v>106.91</v>
       </c>
       <c r="M47">
         <v>103.41</v>
       </c>
       <c r="N47">
-        <v>102.63</v>
+        <v>102.64</v>
       </c>
       <c r="O47">
-        <v>105.36</v>
+        <v>105.37</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2639,7 +2639,7 @@
         <v>0.68</v>
       </c>
       <c r="E48">
-        <v>-51.85</v>
+        <v>-51.51</v>
       </c>
       <c r="F48">
         <v>70.87</v>

--- a/Avwap_Tarama_050126.xlsx
+++ b/Avwap_Tarama_050126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
   <si>
     <t>Hisse</t>
   </si>
@@ -205,7 +205,7 @@
     <t>05-01-26</t>
   </si>
   <si>
-    <t>Direnç Retest(L2)</t>
+    <t>Yukarı Kırılım(L2)</t>
   </si>
   <si>
     <t>Yukarı Kırılım(H3,L2) - Destek Retest(L3) - Direnç Retest(H2,L1)</t>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>Aşağı Kırılım(L3)</t>
-  </si>
-  <si>
-    <t>ResistanceRetest</t>
   </si>
   <si>
     <t>UP</t>
@@ -675,16 +672,16 @@
         <v>62</v>
       </c>
       <c r="C2">
-        <v>12.82</v>
+        <v>12.8</v>
       </c>
       <c r="D2">
-        <v>-0.08</v>
+        <v>-0.23</v>
       </c>
       <c r="E2">
-        <v>-75.54000000000001</v>
+        <v>-75.48999999999999</v>
       </c>
       <c r="F2">
-        <v>65.11</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="G2">
         <v>0.21</v>
@@ -705,7 +702,7 @@
         <v>11.75</v>
       </c>
       <c r="O2">
-        <v>11.85</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -716,19 +713,19 @@
         <v>62</v>
       </c>
       <c r="C3">
-        <v>29.62</v>
+        <v>29.66</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E3">
-        <v>-23.12</v>
+        <v>-22.9</v>
       </c>
       <c r="F3">
-        <v>51.64</v>
+        <v>51.99</v>
       </c>
       <c r="G3">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H3" t="s">
         <v>63</v>
@@ -769,7 +766,7 @@
         <v>4.94</v>
       </c>
       <c r="E4">
-        <v>449.38</v>
+        <v>449.42</v>
       </c>
       <c r="F4">
         <v>57.25</v>
@@ -781,7 +778,7 @@
         <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>113.48</v>
@@ -816,7 +813,7 @@
         <v>1.99</v>
       </c>
       <c r="E5">
-        <v>-15.85</v>
+        <v>-15.81</v>
       </c>
       <c r="F5">
         <v>66.12</v>
@@ -828,7 +825,7 @@
         <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5">
         <v>34.52</v>
@@ -863,7 +860,7 @@
         <v>-1.3</v>
       </c>
       <c r="E6">
-        <v>-18.03</v>
+        <v>-17.96</v>
       </c>
       <c r="F6">
         <v>33.49</v>
@@ -898,16 +895,16 @@
         <v>62</v>
       </c>
       <c r="C7">
-        <v>44.48</v>
+        <v>44.5</v>
       </c>
       <c r="D7">
-        <v>-0.85</v>
+        <v>-0.8</v>
       </c>
       <c r="E7">
-        <v>-35.62</v>
+        <v>-34.87</v>
       </c>
       <c r="F7">
-        <v>43.67</v>
+        <v>43.76</v>
       </c>
       <c r="G7">
         <v>-0.03</v>
@@ -939,16 +936,16 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>16.07</v>
+        <v>16.06</v>
       </c>
       <c r="D8">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="E8">
-        <v>-45.82</v>
+        <v>-45.53</v>
       </c>
       <c r="F8">
-        <v>53.85</v>
+        <v>53.69</v>
       </c>
       <c r="G8">
         <v>-0.08</v>
@@ -998,7 +995,7 @@
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9">
         <v>13.1</v>
@@ -1033,7 +1030,7 @@
         <v>-1.9</v>
       </c>
       <c r="E10">
-        <v>-74.11</v>
+        <v>-74.06</v>
       </c>
       <c r="F10">
         <v>46.02</v>
@@ -1068,16 +1065,16 @@
         <v>62</v>
       </c>
       <c r="C11">
-        <v>29.72</v>
+        <v>29.7</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="E11">
-        <v>-33.53</v>
+        <v>-33.42</v>
       </c>
       <c r="F11">
-        <v>61.64</v>
+        <v>61.48</v>
       </c>
       <c r="G11">
         <v>-0.07000000000000001</v>
@@ -1109,16 +1106,16 @@
         <v>62</v>
       </c>
       <c r="C12">
-        <v>6.23</v>
+        <v>6.24</v>
       </c>
       <c r="D12">
-        <v>-1.42</v>
+        <v>-1.27</v>
       </c>
       <c r="E12">
-        <v>-75.51000000000001</v>
+        <v>-75.48999999999999</v>
       </c>
       <c r="F12">
-        <v>38.31</v>
+        <v>38.49</v>
       </c>
       <c r="G12">
         <v>-0.05</v>
@@ -1150,16 +1147,16 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>22.1</v>
+        <v>22.08</v>
       </c>
       <c r="D13">
-        <v>-1.6</v>
+        <v>-1.69</v>
       </c>
       <c r="E13">
-        <v>-51.36</v>
+        <v>-51.12</v>
       </c>
       <c r="F13">
-        <v>30.38</v>
+        <v>30.26</v>
       </c>
       <c r="G13">
         <v>-0.02</v>
@@ -1191,16 +1188,16 @@
         <v>62</v>
       </c>
       <c r="C14">
-        <v>17.09</v>
+        <v>17.12</v>
       </c>
       <c r="D14">
-        <v>4.33</v>
+        <v>4.52</v>
       </c>
       <c r="E14">
-        <v>-44.47</v>
+        <v>-44.35</v>
       </c>
       <c r="F14">
-        <v>65.87</v>
+        <v>66.03</v>
       </c>
       <c r="G14">
         <v>0.12</v>
@@ -1232,16 +1229,16 @@
         <v>62</v>
       </c>
       <c r="C15">
-        <v>73.09999999999999</v>
+        <v>73.05</v>
       </c>
       <c r="D15">
-        <v>-0.54</v>
+        <v>-0.61</v>
       </c>
       <c r="E15">
-        <v>-32.15</v>
+        <v>-32.05</v>
       </c>
       <c r="F15">
-        <v>67.68000000000001</v>
+        <v>67.42</v>
       </c>
       <c r="G15">
         <v>-0.12</v>
@@ -1262,7 +1259,7 @@
         <v>63.69</v>
       </c>
       <c r="O15">
-        <v>66.61</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1273,19 +1270,19 @@
         <v>62</v>
       </c>
       <c r="C16">
-        <v>158.6</v>
+        <v>158.5</v>
       </c>
       <c r="D16">
-        <v>-1.98</v>
+        <v>-2.04</v>
       </c>
       <c r="E16">
-        <v>-31.09</v>
+        <v>-30.92</v>
       </c>
       <c r="F16">
-        <v>60.84</v>
+        <v>60.67</v>
       </c>
       <c r="G16">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="J16">
         <v>138.64</v>
@@ -1294,7 +1291,7 @@
         <v>141.15</v>
       </c>
       <c r="L16">
-        <v>162.18</v>
+        <v>162.17</v>
       </c>
       <c r="M16">
         <v>138.57</v>
@@ -1314,16 +1311,16 @@
         <v>62</v>
       </c>
       <c r="C17">
-        <v>11.32</v>
+        <v>11.31</v>
       </c>
       <c r="D17">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="E17">
-        <v>-12.92</v>
+        <v>-12.89</v>
       </c>
       <c r="F17">
-        <v>48.64</v>
+        <v>48.49</v>
       </c>
       <c r="G17">
         <v>-0.06</v>
@@ -1355,16 +1352,16 @@
         <v>62</v>
       </c>
       <c r="C18">
-        <v>20.42</v>
+        <v>20.4</v>
       </c>
       <c r="D18">
-        <v>-0.39</v>
+        <v>-0.49</v>
       </c>
       <c r="E18">
-        <v>-38.28</v>
+        <v>-38.2</v>
       </c>
       <c r="F18">
-        <v>34.68</v>
+        <v>34.46</v>
       </c>
       <c r="G18">
         <v>-0.04</v>
@@ -1402,7 +1399,7 @@
         <v>-0.18</v>
       </c>
       <c r="E19">
-        <v>-67.79000000000001</v>
+        <v>-67.67</v>
       </c>
       <c r="F19">
         <v>46.41</v>
@@ -1443,7 +1440,7 @@
         <v>0.58</v>
       </c>
       <c r="E20">
-        <v>-68.38</v>
+        <v>-68.36</v>
       </c>
       <c r="F20">
         <v>49.53</v>
@@ -1484,7 +1481,7 @@
         <v>-0.1</v>
       </c>
       <c r="E21">
-        <v>-63.94</v>
+        <v>-63.92</v>
       </c>
       <c r="F21">
         <v>48.1</v>
@@ -1519,16 +1516,16 @@
         <v>62</v>
       </c>
       <c r="C22">
-        <v>69.2</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="D22">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="E22">
-        <v>-79.11</v>
+        <v>-79</v>
       </c>
       <c r="F22">
-        <v>64.31</v>
+        <v>64.23</v>
       </c>
       <c r="G22">
         <v>0.44</v>
@@ -1543,7 +1540,7 @@
         <v>64.54000000000001</v>
       </c>
       <c r="M22">
-        <v>50.92</v>
+        <v>50.93</v>
       </c>
       <c r="N22">
         <v>60.89</v>
@@ -1566,7 +1563,7 @@
         <v>-1.15</v>
       </c>
       <c r="E23">
-        <v>-79.53</v>
+        <v>-79.5</v>
       </c>
       <c r="F23">
         <v>65.77</v>
@@ -1648,7 +1645,7 @@
         <v>-0.47</v>
       </c>
       <c r="E25">
-        <v>-65.01000000000001</v>
+        <v>-64.95</v>
       </c>
       <c r="F25">
         <v>64.73999999999999</v>
@@ -1683,28 +1680,28 @@
         <v>62</v>
       </c>
       <c r="C26">
-        <v>8.130000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D26">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="E26">
-        <v>-55.49</v>
+        <v>-55.47</v>
       </c>
       <c r="F26">
-        <v>53.34</v>
+        <v>52.98</v>
       </c>
       <c r="G26">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J26">
-        <v>8.02</v>
+        <v>8.01</v>
       </c>
       <c r="K26">
         <v>8.02</v>
@@ -1748,7 +1745,7 @@
         <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J27">
         <v>919.3200000000001</v>
@@ -1783,7 +1780,7 @@
         <v>0.29</v>
       </c>
       <c r="E28">
-        <v>-42.84</v>
+        <v>-42.6</v>
       </c>
       <c r="F28">
         <v>42.79</v>
@@ -1818,16 +1815,16 @@
         <v>62</v>
       </c>
       <c r="C29">
-        <v>41.1</v>
+        <v>41.14</v>
       </c>
       <c r="D29">
-        <v>-0.48</v>
+        <v>-0.39</v>
       </c>
       <c r="E29">
-        <v>-48.53</v>
+        <v>-47.45</v>
       </c>
       <c r="F29">
-        <v>39.89</v>
+        <v>40.11</v>
       </c>
       <c r="G29">
         <v>-0.19</v>
@@ -1865,7 +1862,7 @@
         <v>-1.21</v>
       </c>
       <c r="E30">
-        <v>-65.25</v>
+        <v>-65.04000000000001</v>
       </c>
       <c r="F30">
         <v>49.02</v>
@@ -1941,43 +1938,43 @@
         <v>62</v>
       </c>
       <c r="C32">
-        <v>217.8</v>
+        <v>217.4</v>
       </c>
       <c r="D32">
-        <v>2.3</v>
+        <v>2.11</v>
       </c>
       <c r="E32">
-        <v>-59.67</v>
+        <v>-58.26</v>
       </c>
       <c r="F32">
-        <v>69.13</v>
+        <v>69.03</v>
       </c>
       <c r="G32">
-        <v>-0.84</v>
+        <v>-0.87</v>
       </c>
       <c r="H32" t="s">
         <v>69</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J32">
-        <v>109.43</v>
+        <v>109.44</v>
       </c>
       <c r="K32">
-        <v>111.88</v>
+        <v>111.89</v>
       </c>
       <c r="L32">
-        <v>212.16</v>
+        <v>212.15</v>
       </c>
       <c r="M32">
-        <v>108.88</v>
+        <v>108.89</v>
       </c>
       <c r="N32">
-        <v>110.63</v>
+        <v>110.64</v>
       </c>
       <c r="O32">
-        <v>129.21</v>
+        <v>129.22</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1988,16 +1985,16 @@
         <v>62</v>
       </c>
       <c r="C33">
-        <v>105.95</v>
+        <v>105.93</v>
       </c>
       <c r="D33">
-        <v>4.66</v>
+        <v>4.64</v>
       </c>
       <c r="E33">
-        <v>-46.44</v>
+        <v>-46.13</v>
       </c>
       <c r="F33">
-        <v>82.47</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="G33">
         <v>0.93</v>
@@ -2029,16 +2026,16 @@
         <v>62</v>
       </c>
       <c r="C34">
-        <v>15.4</v>
+        <v>15.39</v>
       </c>
       <c r="D34">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="E34">
-        <v>84.48</v>
+        <v>84.63</v>
       </c>
       <c r="F34">
-        <v>55.03</v>
+        <v>54.91</v>
       </c>
       <c r="G34">
         <v>-0</v>
@@ -2047,7 +2044,7 @@
         <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J34">
         <v>15.67</v>
@@ -2082,7 +2079,7 @@
         <v>-0.83</v>
       </c>
       <c r="E35">
-        <v>-56.72</v>
+        <v>-56.71</v>
       </c>
       <c r="F35">
         <v>53.87</v>
@@ -2117,16 +2114,16 @@
         <v>62</v>
       </c>
       <c r="C36">
-        <v>15.72</v>
+        <v>15.73</v>
       </c>
       <c r="D36">
-        <v>-3.08</v>
+        <v>-3.02</v>
       </c>
       <c r="E36">
-        <v>-69.31</v>
+        <v>-69.18000000000001</v>
       </c>
       <c r="F36">
-        <v>46.62</v>
+        <v>46.74</v>
       </c>
       <c r="G36">
         <v>0.03</v>
@@ -2135,7 +2132,7 @@
         <v>71</v>
       </c>
       <c r="I36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J36">
         <v>19.58</v>
@@ -2164,16 +2161,16 @@
         <v>62</v>
       </c>
       <c r="C37">
-        <v>10.93</v>
+        <v>10.92</v>
       </c>
       <c r="D37">
-        <v>-0.64</v>
+        <v>-0.73</v>
       </c>
       <c r="E37">
-        <v>-46.11</v>
+        <v>-45.94</v>
       </c>
       <c r="F37">
-        <v>40.63</v>
+        <v>40.43</v>
       </c>
       <c r="G37">
         <v>-0.03</v>
@@ -2205,16 +2202,16 @@
         <v>62</v>
       </c>
       <c r="C38">
-        <v>96.7</v>
+        <v>96.75</v>
       </c>
       <c r="D38">
-        <v>-0.51</v>
+        <v>-0.46</v>
       </c>
       <c r="E38">
-        <v>-75.43000000000001</v>
+        <v>-75.20999999999999</v>
       </c>
       <c r="F38">
-        <v>40.11</v>
+        <v>40.2</v>
       </c>
       <c r="G38">
         <v>-1.17</v>
@@ -2252,7 +2249,7 @@
         <v>1.4</v>
       </c>
       <c r="E39">
-        <v>-27.82</v>
+        <v>-27.73</v>
       </c>
       <c r="F39">
         <v>48.55</v>
@@ -2264,7 +2261,7 @@
         <v>72</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J39">
         <v>22.46</v>
@@ -2293,19 +2290,19 @@
         <v>62</v>
       </c>
       <c r="C40">
-        <v>70.40000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="D40">
-        <v>-1.47</v>
+        <v>-1.68</v>
       </c>
       <c r="E40">
-        <v>-69.76000000000001</v>
+        <v>-69.56</v>
       </c>
       <c r="F40">
-        <v>59.21</v>
+        <v>58.83</v>
       </c>
       <c r="G40">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="J40">
         <v>61.82</v>
@@ -2340,7 +2337,7 @@
         <v>0.48</v>
       </c>
       <c r="E41">
-        <v>-47.72</v>
+        <v>-47.05</v>
       </c>
       <c r="F41">
         <v>47.85</v>
@@ -2375,16 +2372,16 @@
         <v>62</v>
       </c>
       <c r="C42">
-        <v>37.2</v>
+        <v>37.24</v>
       </c>
       <c r="D42">
-        <v>5.56</v>
+        <v>5.68</v>
       </c>
       <c r="E42">
-        <v>-40.88</v>
+        <v>-40.64</v>
       </c>
       <c r="F42">
-        <v>62.4</v>
+        <v>62.51</v>
       </c>
       <c r="G42">
         <v>-0.23</v>
@@ -2416,16 +2413,16 @@
         <v>62</v>
       </c>
       <c r="C43">
-        <v>28.32</v>
+        <v>28.34</v>
       </c>
       <c r="D43">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="E43">
         <v>-77.13</v>
       </c>
       <c r="F43">
-        <v>58.46</v>
+        <v>58.59</v>
       </c>
       <c r="G43">
         <v>0.22</v>
@@ -2434,7 +2431,7 @@
         <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J43">
         <v>28.99</v>
@@ -2469,7 +2466,7 @@
         <v>-2.9</v>
       </c>
       <c r="E44">
-        <v>-68.53</v>
+        <v>-68.41</v>
       </c>
       <c r="F44">
         <v>64.08</v>
@@ -2481,7 +2478,7 @@
         <v>74</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J44">
         <v>3.18</v>
@@ -2557,7 +2554,7 @@
         <v>-2.48</v>
       </c>
       <c r="E46">
-        <v>-60.72</v>
+        <v>-60.71</v>
       </c>
       <c r="F46">
         <v>22.74</v>
@@ -2592,19 +2589,19 @@
         <v>62</v>
       </c>
       <c r="C47">
-        <v>118.8</v>
+        <v>118.7</v>
       </c>
       <c r="D47">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="E47">
-        <v>-25.28</v>
+        <v>-25.07</v>
       </c>
       <c r="F47">
-        <v>71.73</v>
+        <v>71.62</v>
       </c>
       <c r="G47">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="J47">
         <v>104.17</v>
@@ -2633,19 +2630,19 @@
         <v>62</v>
       </c>
       <c r="C48">
-        <v>59.05</v>
+        <v>59.2</v>
       </c>
       <c r="D48">
-        <v>0.68</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E48">
-        <v>-51.51</v>
+        <v>-50.85</v>
       </c>
       <c r="F48">
-        <v>70.87</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G48">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="J48">
         <v>56.26</v>
@@ -2663,7 +2660,7 @@
         <v>55.49</v>
       </c>
       <c r="O48">
-        <v>55.52</v>
+        <v>55.53</v>
       </c>
     </row>
   </sheetData>

--- a/Avwap_Tarama_050126.xlsx
+++ b/Avwap_Tarama_050126.xlsx
@@ -678,7 +678,7 @@
         <v>-0.23</v>
       </c>
       <c r="E2">
-        <v>-75.48999999999999</v>
+        <v>-75.45</v>
       </c>
       <c r="F2">
         <v>64.79000000000001</v>
@@ -719,7 +719,7 @@
         <v>0.14</v>
       </c>
       <c r="E3">
-        <v>-22.9</v>
+        <v>-22.79</v>
       </c>
       <c r="F3">
         <v>51.99</v>
@@ -760,19 +760,19 @@
         <v>62</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D4">
-        <v>4.94</v>
+        <v>5.05</v>
       </c>
       <c r="E4">
-        <v>449.42</v>
+        <v>449.69</v>
       </c>
       <c r="F4">
-        <v>57.25</v>
+        <v>57.46</v>
       </c>
       <c r="G4">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
@@ -784,19 +784,19 @@
         <v>113.48</v>
       </c>
       <c r="K4">
-        <v>106.19</v>
+        <v>106.2</v>
       </c>
       <c r="L4">
-        <v>101.64</v>
+        <v>101.66</v>
       </c>
       <c r="M4">
-        <v>106.61</v>
+        <v>106.62</v>
       </c>
       <c r="N4">
-        <v>101.97</v>
+        <v>101.99</v>
       </c>
       <c r="O4">
-        <v>101.89</v>
+        <v>101.96</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -807,16 +807,16 @@
         <v>62</v>
       </c>
       <c r="C5">
-        <v>34.9</v>
+        <v>34.92</v>
       </c>
       <c r="D5">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="E5">
-        <v>-15.81</v>
+        <v>-15.78</v>
       </c>
       <c r="F5">
-        <v>66.12</v>
+        <v>66.19</v>
       </c>
       <c r="G5">
         <v>0.41</v>
@@ -843,7 +843,7 @@
         <v>32.99</v>
       </c>
       <c r="O5">
-        <v>32.84</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -895,16 +895,16 @@
         <v>62</v>
       </c>
       <c r="C7">
-        <v>44.5</v>
+        <v>44.52</v>
       </c>
       <c r="D7">
-        <v>-0.8</v>
+        <v>-0.76</v>
       </c>
       <c r="E7">
-        <v>-34.87</v>
+        <v>-34.51</v>
       </c>
       <c r="F7">
-        <v>43.76</v>
+        <v>43.84</v>
       </c>
       <c r="G7">
         <v>-0.03</v>
@@ -942,7 +942,7 @@
         <v>0.63</v>
       </c>
       <c r="E8">
-        <v>-45.53</v>
+        <v>-45.22</v>
       </c>
       <c r="F8">
         <v>53.69</v>
@@ -983,7 +983,7 @@
         <v>-0.15</v>
       </c>
       <c r="E9">
-        <v>-74.06</v>
+        <v>-73.97</v>
       </c>
       <c r="F9">
         <v>46.76</v>
@@ -1024,19 +1024,19 @@
         <v>62</v>
       </c>
       <c r="C10">
-        <v>211.4</v>
+        <v>211.7</v>
       </c>
       <c r="D10">
-        <v>-1.9</v>
+        <v>-1.76</v>
       </c>
       <c r="E10">
-        <v>-74.06</v>
+        <v>-73.81999999999999</v>
       </c>
       <c r="F10">
-        <v>46.02</v>
+        <v>46.28</v>
       </c>
       <c r="G10">
-        <v>-0.6899999999999999</v>
+        <v>-0.67</v>
       </c>
       <c r="J10">
         <v>192.69</v>
@@ -1045,7 +1045,7 @@
         <v>210.52</v>
       </c>
       <c r="L10">
-        <v>216.98</v>
+        <v>216.99</v>
       </c>
       <c r="M10">
         <v>189.35</v>
@@ -1054,7 +1054,7 @@
         <v>198.56</v>
       </c>
       <c r="O10">
-        <v>217.69</v>
+        <v>217.7</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1071,7 +1071,7 @@
         <v>1.23</v>
       </c>
       <c r="E11">
-        <v>-33.42</v>
+        <v>-33.14</v>
       </c>
       <c r="F11">
         <v>61.48</v>
@@ -1112,7 +1112,7 @@
         <v>-1.27</v>
       </c>
       <c r="E12">
-        <v>-75.48999999999999</v>
+        <v>-75.43000000000001</v>
       </c>
       <c r="F12">
         <v>38.49</v>
@@ -1153,7 +1153,7 @@
         <v>-1.69</v>
       </c>
       <c r="E13">
-        <v>-51.12</v>
+        <v>-50.91</v>
       </c>
       <c r="F13">
         <v>30.26</v>
@@ -1188,16 +1188,16 @@
         <v>62</v>
       </c>
       <c r="C14">
-        <v>17.12</v>
+        <v>17.11</v>
       </c>
       <c r="D14">
-        <v>4.52</v>
+        <v>4.46</v>
       </c>
       <c r="E14">
-        <v>-44.35</v>
+        <v>-44.29</v>
       </c>
       <c r="F14">
-        <v>66.03</v>
+        <v>65.97</v>
       </c>
       <c r="G14">
         <v>0.12</v>
@@ -1235,7 +1235,7 @@
         <v>-0.61</v>
       </c>
       <c r="E15">
-        <v>-32.05</v>
+        <v>-31.97</v>
       </c>
       <c r="F15">
         <v>67.42</v>
@@ -1276,7 +1276,7 @@
         <v>-2.04</v>
       </c>
       <c r="E16">
-        <v>-30.92</v>
+        <v>-30.81</v>
       </c>
       <c r="F16">
         <v>60.67</v>
@@ -1317,7 +1317,7 @@
         <v>0.18</v>
       </c>
       <c r="E17">
-        <v>-12.89</v>
+        <v>-12.82</v>
       </c>
       <c r="F17">
         <v>48.49</v>
@@ -1352,16 +1352,16 @@
         <v>62</v>
       </c>
       <c r="C18">
-        <v>20.4</v>
+        <v>20.42</v>
       </c>
       <c r="D18">
-        <v>-0.49</v>
+        <v>-0.39</v>
       </c>
       <c r="E18">
-        <v>-38.2</v>
+        <v>-38.19</v>
       </c>
       <c r="F18">
-        <v>34.46</v>
+        <v>34.68</v>
       </c>
       <c r="G18">
         <v>-0.04</v>
@@ -1399,7 +1399,7 @@
         <v>-0.18</v>
       </c>
       <c r="E19">
-        <v>-67.67</v>
+        <v>-67.41</v>
       </c>
       <c r="F19">
         <v>46.41</v>
@@ -1440,7 +1440,7 @@
         <v>0.58</v>
       </c>
       <c r="E20">
-        <v>-68.36</v>
+        <v>-68.27</v>
       </c>
       <c r="F20">
         <v>49.53</v>
@@ -1481,7 +1481,7 @@
         <v>-0.1</v>
       </c>
       <c r="E21">
-        <v>-63.92</v>
+        <v>-63.91</v>
       </c>
       <c r="F21">
         <v>48.1</v>
@@ -1516,19 +1516,19 @@
         <v>62</v>
       </c>
       <c r="C22">
-        <v>69.15000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D22">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="E22">
-        <v>-79</v>
+        <v>-78.98999999999999</v>
       </c>
       <c r="F22">
-        <v>64.23</v>
+        <v>64.16</v>
       </c>
       <c r="G22">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="J22">
         <v>50.74</v>
@@ -1540,7 +1540,7 @@
         <v>64.54000000000001</v>
       </c>
       <c r="M22">
-        <v>50.93</v>
+        <v>50.92</v>
       </c>
       <c r="N22">
         <v>60.89</v>
@@ -1557,19 +1557,19 @@
         <v>62</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>24.14</v>
       </c>
       <c r="D23">
-        <v>-1.15</v>
+        <v>-0.58</v>
       </c>
       <c r="E23">
-        <v>-79.5</v>
+        <v>-79.37</v>
       </c>
       <c r="F23">
-        <v>65.77</v>
+        <v>66.47</v>
       </c>
       <c r="G23">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="J23">
         <v>21.11</v>
@@ -1578,16 +1578,16 @@
         <v>21.66</v>
       </c>
       <c r="L23">
-        <v>22.03</v>
+        <v>22.04</v>
       </c>
       <c r="M23">
-        <v>21.58</v>
+        <v>21.59</v>
       </c>
       <c r="N23">
-        <v>21.96</v>
+        <v>21.97</v>
       </c>
       <c r="O23">
-        <v>22.44</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1604,7 +1604,7 @@
         <v>-1.08</v>
       </c>
       <c r="E24">
-        <v>-51.97</v>
+        <v>-51.92</v>
       </c>
       <c r="F24">
         <v>38.81</v>
@@ -1639,19 +1639,19 @@
         <v>62</v>
       </c>
       <c r="C25">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D25">
-        <v>-0.47</v>
+        <v>-0.38</v>
       </c>
       <c r="E25">
-        <v>-64.95</v>
+        <v>-64.87</v>
       </c>
       <c r="F25">
-        <v>64.73999999999999</v>
+        <v>65.08</v>
       </c>
       <c r="G25">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="J25">
         <v>99.78</v>
@@ -1663,7 +1663,7 @@
         <v>103.97</v>
       </c>
       <c r="M25">
-        <v>94.61</v>
+        <v>94.62</v>
       </c>
       <c r="N25">
         <v>100.61</v>
@@ -1680,19 +1680,19 @@
         <v>62</v>
       </c>
       <c r="C26">
-        <v>8.119999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D26">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="E26">
-        <v>-55.47</v>
+        <v>-55.45</v>
       </c>
       <c r="F26">
-        <v>52.98</v>
+        <v>53.34</v>
       </c>
       <c r="G26">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
@@ -1701,7 +1701,7 @@
         <v>75</v>
       </c>
       <c r="J26">
-        <v>8.01</v>
+        <v>8.02</v>
       </c>
       <c r="K26">
         <v>8.02</v>
@@ -1733,7 +1733,7 @@
         <v>-1.38</v>
       </c>
       <c r="E27">
-        <v>-45.97</v>
+        <v>-45.49</v>
       </c>
       <c r="F27">
         <v>43.11</v>
@@ -1763,7 +1763,7 @@
         <v>868.45</v>
       </c>
       <c r="O27">
-        <v>855.28</v>
+        <v>855.29</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1815,16 +1815,16 @@
         <v>62</v>
       </c>
       <c r="C29">
-        <v>41.14</v>
+        <v>41.16</v>
       </c>
       <c r="D29">
-        <v>-0.39</v>
+        <v>-0.34</v>
       </c>
       <c r="E29">
-        <v>-47.45</v>
+        <v>-46.47</v>
       </c>
       <c r="F29">
-        <v>40.11</v>
+        <v>40.22</v>
       </c>
       <c r="G29">
         <v>-0.19</v>
@@ -1856,19 +1856,19 @@
         <v>62</v>
       </c>
       <c r="C30">
-        <v>10.65</v>
+        <v>10.64</v>
       </c>
       <c r="D30">
-        <v>-1.21</v>
+        <v>-1.3</v>
       </c>
       <c r="E30">
-        <v>-65.04000000000001</v>
+        <v>-64.25</v>
       </c>
       <c r="F30">
-        <v>49.02</v>
+        <v>48.91</v>
       </c>
       <c r="G30">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="J30">
         <v>11.32</v>
@@ -1897,19 +1897,19 @@
         <v>62</v>
       </c>
       <c r="C31">
-        <v>18.28</v>
+        <v>18.31</v>
       </c>
       <c r="D31">
-        <v>-1.03</v>
+        <v>-0.87</v>
       </c>
       <c r="E31">
-        <v>-83.09999999999999</v>
+        <v>-83.08</v>
       </c>
       <c r="F31">
-        <v>58</v>
+        <v>58.38</v>
       </c>
       <c r="G31">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J31">
         <v>19.45</v>
@@ -1927,7 +1927,7 @@
         <v>17.09</v>
       </c>
       <c r="O31">
-        <v>18.07</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1944,7 +1944,7 @@
         <v>2.11</v>
       </c>
       <c r="E32">
-        <v>-58.26</v>
+        <v>-57.95</v>
       </c>
       <c r="F32">
         <v>69.03</v>
@@ -1974,7 +1974,7 @@
         <v>110.64</v>
       </c>
       <c r="O32">
-        <v>129.22</v>
+        <v>129.23</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1985,22 +1985,22 @@
         <v>62</v>
       </c>
       <c r="C33">
-        <v>105.93</v>
+        <v>105.94</v>
       </c>
       <c r="D33">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E33">
-        <v>-46.13</v>
+        <v>-45.89</v>
       </c>
       <c r="F33">
-        <v>82.45999999999999</v>
+        <v>82.47</v>
       </c>
       <c r="G33">
         <v>0.93</v>
       </c>
       <c r="J33">
-        <v>69.76000000000001</v>
+        <v>69.77</v>
       </c>
       <c r="K33">
         <v>79.37</v>
@@ -2026,19 +2026,19 @@
         <v>62</v>
       </c>
       <c r="C34">
-        <v>15.39</v>
+        <v>15.37</v>
       </c>
       <c r="D34">
-        <v>3.22</v>
+        <v>3.09</v>
       </c>
       <c r="E34">
-        <v>84.63</v>
+        <v>85.14</v>
       </c>
       <c r="F34">
-        <v>54.91</v>
+        <v>54.66</v>
       </c>
       <c r="G34">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="H34" t="s">
         <v>70</v>
@@ -2059,7 +2059,7 @@
         <v>16</v>
       </c>
       <c r="N34">
-        <v>15.2</v>
+        <v>15.19</v>
       </c>
       <c r="O34">
         <v>15.01</v>
@@ -2073,19 +2073,19 @@
         <v>62</v>
       </c>
       <c r="C35">
-        <v>26.24</v>
+        <v>26.2</v>
       </c>
       <c r="D35">
-        <v>-0.83</v>
+        <v>-0.98</v>
       </c>
       <c r="E35">
-        <v>-56.71</v>
+        <v>-56.51</v>
       </c>
       <c r="F35">
-        <v>53.87</v>
+        <v>53.56</v>
       </c>
       <c r="G35">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="J35">
         <v>29.26</v>
@@ -2120,7 +2120,7 @@
         <v>-3.02</v>
       </c>
       <c r="E36">
-        <v>-69.18000000000001</v>
+        <v>-69.03</v>
       </c>
       <c r="F36">
         <v>46.74</v>
@@ -2167,7 +2167,7 @@
         <v>-0.73</v>
       </c>
       <c r="E37">
-        <v>-45.94</v>
+        <v>-45.09</v>
       </c>
       <c r="F37">
         <v>40.43</v>
@@ -2249,7 +2249,7 @@
         <v>1.4</v>
       </c>
       <c r="E39">
-        <v>-27.73</v>
+        <v>-27.67</v>
       </c>
       <c r="F39">
         <v>48.55</v>
@@ -2290,22 +2290,22 @@
         <v>62</v>
       </c>
       <c r="C40">
-        <v>70.25</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="D40">
-        <v>-1.68</v>
+        <v>-1.82</v>
       </c>
       <c r="E40">
-        <v>-69.56</v>
+        <v>-69.39</v>
       </c>
       <c r="F40">
-        <v>58.83</v>
+        <v>58.58</v>
       </c>
       <c r="G40">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="J40">
-        <v>61.82</v>
+        <v>61.81</v>
       </c>
       <c r="K40">
         <v>66.19</v>
@@ -2337,7 +2337,7 @@
         <v>0.48</v>
       </c>
       <c r="E41">
-        <v>-47.05</v>
+        <v>-46.78</v>
       </c>
       <c r="F41">
         <v>47.85</v>
@@ -2372,16 +2372,16 @@
         <v>62</v>
       </c>
       <c r="C42">
-        <v>37.24</v>
+        <v>37.3</v>
       </c>
       <c r="D42">
-        <v>5.68</v>
+        <v>5.85</v>
       </c>
       <c r="E42">
-        <v>-40.64</v>
+        <v>-40.3</v>
       </c>
       <c r="F42">
-        <v>62.51</v>
+        <v>62.67</v>
       </c>
       <c r="G42">
         <v>-0.23</v>
@@ -2393,7 +2393,7 @@
         <v>32.82</v>
       </c>
       <c r="L42">
-        <v>34.82</v>
+        <v>34.83</v>
       </c>
       <c r="M42">
         <v>31.94</v>
@@ -2413,19 +2413,19 @@
         <v>62</v>
       </c>
       <c r="C43">
-        <v>28.34</v>
+        <v>28.3</v>
       </c>
       <c r="D43">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="E43">
-        <v>-77.13</v>
+        <v>-77.05</v>
       </c>
       <c r="F43">
-        <v>58.59</v>
+        <v>58.32</v>
       </c>
       <c r="G43">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H43" t="s">
         <v>73</v>
@@ -2449,7 +2449,7 @@
         <v>27.49</v>
       </c>
       <c r="O43">
-        <v>27.99</v>
+        <v>27.98</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2460,19 +2460,19 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="D44">
-        <v>-2.9</v>
+        <v>-3.17</v>
       </c>
       <c r="E44">
-        <v>-68.41</v>
+        <v>-68.22</v>
       </c>
       <c r="F44">
-        <v>64.08</v>
+        <v>63.64</v>
       </c>
       <c r="G44">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H44" t="s">
         <v>74</v>
@@ -2507,16 +2507,16 @@
         <v>62</v>
       </c>
       <c r="C45">
-        <v>37.46</v>
+        <v>37.44</v>
       </c>
       <c r="D45">
-        <v>-1.42</v>
+        <v>-1.47</v>
       </c>
       <c r="E45">
-        <v>-64.04000000000001</v>
+        <v>-63.97</v>
       </c>
       <c r="F45">
-        <v>39.21</v>
+        <v>39.14</v>
       </c>
       <c r="G45">
         <v>-0.24</v>
@@ -2554,7 +2554,7 @@
         <v>-2.48</v>
       </c>
       <c r="E46">
-        <v>-60.71</v>
+        <v>-60.56</v>
       </c>
       <c r="F46">
         <v>22.74</v>
@@ -2589,19 +2589,19 @@
         <v>62</v>
       </c>
       <c r="C47">
-        <v>118.7</v>
+        <v>118.8</v>
       </c>
       <c r="D47">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="E47">
-        <v>-25.07</v>
+        <v>-24.83</v>
       </c>
       <c r="F47">
-        <v>71.62</v>
+        <v>71.73</v>
       </c>
       <c r="G47">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="J47">
         <v>104.17</v>
@@ -2610,7 +2610,7 @@
         <v>104.27</v>
       </c>
       <c r="L47">
-        <v>106.91</v>
+        <v>106.92</v>
       </c>
       <c r="M47">
         <v>103.41</v>
@@ -2630,31 +2630,31 @@
         <v>62</v>
       </c>
       <c r="C48">
-        <v>59.2</v>
+        <v>59.3</v>
       </c>
       <c r="D48">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="E48">
-        <v>-50.85</v>
+        <v>-50.14</v>
       </c>
       <c r="F48">
-        <v>71.40000000000001</v>
+        <v>71.75</v>
       </c>
       <c r="G48">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="J48">
         <v>56.26</v>
       </c>
       <c r="K48">
-        <v>55.57</v>
+        <v>55.58</v>
       </c>
       <c r="L48">
         <v>55.16</v>
       </c>
       <c r="M48">
-        <v>55.59</v>
+        <v>55.6</v>
       </c>
       <c r="N48">
         <v>55.49</v>

--- a/Avwap_Tarama_050126.xlsx
+++ b/Avwap_Tarama_050126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>Hisse</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Aşağı Kırılım(H3)</t>
   </si>
   <si>
-    <t>Destek Retest(H3)</t>
-  </si>
-  <si>
     <t>Yukarı Kırılım(H2,H3,L2,L3)</t>
   </si>
   <si>
@@ -247,13 +244,13 @@
     <t>DOWN</t>
   </si>
   <si>
+    <t>StrongUP</t>
+  </si>
+  <si>
+    <t>StrongDOWN</t>
+  </si>
+  <si>
     <t>SupportRetest</t>
-  </si>
-  <si>
-    <t>StrongUP</t>
-  </si>
-  <si>
-    <t>StrongDOWN</t>
   </si>
 </sst>
 </file>
@@ -672,16 +669,16 @@
         <v>62</v>
       </c>
       <c r="C2">
-        <v>12.8</v>
+        <v>12.82</v>
       </c>
       <c r="D2">
-        <v>-0.23</v>
+        <v>-0.08</v>
       </c>
       <c r="E2">
-        <v>-75.45</v>
+        <v>-75.38</v>
       </c>
       <c r="F2">
-        <v>64.79000000000001</v>
+        <v>65.11</v>
       </c>
       <c r="G2">
         <v>0.21</v>
@@ -702,7 +699,7 @@
         <v>11.75</v>
       </c>
       <c r="O2">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -719,7 +716,7 @@
         <v>0.14</v>
       </c>
       <c r="E3">
-        <v>-22.79</v>
+        <v>-22.62</v>
       </c>
       <c r="F3">
         <v>51.99</v>
@@ -731,7 +728,7 @@
         <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3">
         <v>30.31</v>
@@ -760,43 +757,43 @@
         <v>62</v>
       </c>
       <c r="C4">
-        <v>104.1</v>
+        <v>104.3</v>
       </c>
       <c r="D4">
-        <v>5.05</v>
+        <v>5.25</v>
       </c>
       <c r="E4">
-        <v>449.69</v>
+        <v>455.27</v>
       </c>
       <c r="F4">
-        <v>57.46</v>
+        <v>57.87</v>
       </c>
       <c r="G4">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4">
         <v>113.48</v>
       </c>
       <c r="K4">
-        <v>106.2</v>
+        <v>106.21</v>
       </c>
       <c r="L4">
-        <v>101.66</v>
+        <v>101.7</v>
       </c>
       <c r="M4">
-        <v>106.62</v>
+        <v>106.63</v>
       </c>
       <c r="N4">
-        <v>101.99</v>
+        <v>102.02</v>
       </c>
       <c r="O4">
-        <v>101.96</v>
+        <v>102.11</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -807,25 +804,25 @@
         <v>62</v>
       </c>
       <c r="C5">
-        <v>34.92</v>
+        <v>35.04</v>
       </c>
       <c r="D5">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="E5">
-        <v>-15.78</v>
+        <v>-14.52</v>
       </c>
       <c r="F5">
-        <v>66.19</v>
+        <v>66.62</v>
       </c>
       <c r="G5">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="H5" t="s">
         <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5">
         <v>34.52</v>
@@ -834,16 +831,16 @@
         <v>32.82</v>
       </c>
       <c r="L5">
-        <v>32.49</v>
+        <v>32.5</v>
       </c>
       <c r="M5">
-        <v>32.37</v>
+        <v>32.38</v>
       </c>
       <c r="N5">
-        <v>32.99</v>
+        <v>33</v>
       </c>
       <c r="O5">
-        <v>32.85</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -854,16 +851,16 @@
         <v>62</v>
       </c>
       <c r="C6">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="D6">
-        <v>-1.3</v>
+        <v>-0.65</v>
       </c>
       <c r="E6">
-        <v>-17.96</v>
+        <v>-17.59</v>
       </c>
       <c r="F6">
-        <v>33.49</v>
+        <v>33.92</v>
       </c>
       <c r="G6">
         <v>0.03</v>
@@ -895,16 +892,16 @@
         <v>62</v>
       </c>
       <c r="C7">
-        <v>44.52</v>
+        <v>44.48</v>
       </c>
       <c r="D7">
-        <v>-0.76</v>
+        <v>-0.85</v>
       </c>
       <c r="E7">
-        <v>-34.51</v>
+        <v>-33.45</v>
       </c>
       <c r="F7">
-        <v>43.84</v>
+        <v>43.67</v>
       </c>
       <c r="G7">
         <v>-0.03</v>
@@ -936,16 +933,16 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>16.06</v>
+        <v>16.05</v>
       </c>
       <c r="D8">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E8">
-        <v>-45.22</v>
+        <v>-43.59</v>
       </c>
       <c r="F8">
-        <v>53.69</v>
+        <v>53.54</v>
       </c>
       <c r="G8">
         <v>-0.08</v>
@@ -983,7 +980,7 @@
         <v>-0.15</v>
       </c>
       <c r="E9">
-        <v>-73.97</v>
+        <v>-73.56</v>
       </c>
       <c r="F9">
         <v>46.76</v>
@@ -995,7 +992,7 @@
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9">
         <v>13.1</v>
@@ -1024,19 +1021,19 @@
         <v>62</v>
       </c>
       <c r="C10">
-        <v>211.7</v>
+        <v>211.4</v>
       </c>
       <c r="D10">
-        <v>-1.76</v>
+        <v>-1.9</v>
       </c>
       <c r="E10">
-        <v>-73.81999999999999</v>
+        <v>-73.42</v>
       </c>
       <c r="F10">
-        <v>46.28</v>
+        <v>46.02</v>
       </c>
       <c r="G10">
-        <v>-0.67</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="J10">
         <v>192.69</v>
@@ -1045,7 +1042,7 @@
         <v>210.52</v>
       </c>
       <c r="L10">
-        <v>216.99</v>
+        <v>216.97</v>
       </c>
       <c r="M10">
         <v>189.35</v>
@@ -1054,7 +1051,7 @@
         <v>198.56</v>
       </c>
       <c r="O10">
-        <v>217.7</v>
+        <v>217.69</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1071,7 +1068,7 @@
         <v>1.23</v>
       </c>
       <c r="E11">
-        <v>-33.14</v>
+        <v>-32.93</v>
       </c>
       <c r="F11">
         <v>61.48</v>
@@ -1106,16 +1103,16 @@
         <v>62</v>
       </c>
       <c r="C12">
-        <v>6.24</v>
+        <v>6.23</v>
       </c>
       <c r="D12">
-        <v>-1.27</v>
+        <v>-1.42</v>
       </c>
       <c r="E12">
-        <v>-75.43000000000001</v>
+        <v>-75.34999999999999</v>
       </c>
       <c r="F12">
-        <v>38.49</v>
+        <v>38.31</v>
       </c>
       <c r="G12">
         <v>-0.05</v>
@@ -1153,7 +1150,7 @@
         <v>-1.69</v>
       </c>
       <c r="E13">
-        <v>-50.91</v>
+        <v>-50.69</v>
       </c>
       <c r="F13">
         <v>30.26</v>
@@ -1188,16 +1185,16 @@
         <v>62</v>
       </c>
       <c r="C14">
-        <v>17.11</v>
+        <v>17.13</v>
       </c>
       <c r="D14">
-        <v>4.46</v>
+        <v>4.58</v>
       </c>
       <c r="E14">
-        <v>-44.29</v>
+        <v>-44.22</v>
       </c>
       <c r="F14">
-        <v>65.97</v>
+        <v>66.08</v>
       </c>
       <c r="G14">
         <v>0.12</v>
@@ -1235,7 +1232,7 @@
         <v>-0.61</v>
       </c>
       <c r="E15">
-        <v>-31.97</v>
+        <v>-31.79</v>
       </c>
       <c r="F15">
         <v>67.42</v>
@@ -1259,7 +1256,7 @@
         <v>63.69</v>
       </c>
       <c r="O15">
-        <v>66.59999999999999</v>
+        <v>66.61</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1270,19 +1267,19 @@
         <v>62</v>
       </c>
       <c r="C16">
-        <v>158.5</v>
+        <v>158.2</v>
       </c>
       <c r="D16">
-        <v>-2.04</v>
+        <v>-2.22</v>
       </c>
       <c r="E16">
-        <v>-30.81</v>
+        <v>-30.08</v>
       </c>
       <c r="F16">
-        <v>60.67</v>
+        <v>60.17</v>
       </c>
       <c r="G16">
-        <v>-0.23</v>
+        <v>-0.25</v>
       </c>
       <c r="J16">
         <v>138.64</v>
@@ -1291,7 +1288,7 @@
         <v>141.15</v>
       </c>
       <c r="L16">
-        <v>162.17</v>
+        <v>162.14</v>
       </c>
       <c r="M16">
         <v>138.57</v>
@@ -1311,16 +1308,16 @@
         <v>62</v>
       </c>
       <c r="C17">
-        <v>11.31</v>
+        <v>11.32</v>
       </c>
       <c r="D17">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="E17">
-        <v>-12.82</v>
+        <v>-12.7</v>
       </c>
       <c r="F17">
-        <v>48.49</v>
+        <v>48.64</v>
       </c>
       <c r="G17">
         <v>-0.06</v>
@@ -1358,7 +1355,7 @@
         <v>-0.39</v>
       </c>
       <c r="E18">
-        <v>-38.19</v>
+        <v>-37.94</v>
       </c>
       <c r="F18">
         <v>34.68</v>
@@ -1399,7 +1396,7 @@
         <v>-0.18</v>
       </c>
       <c r="E19">
-        <v>-67.41</v>
+        <v>-67.23</v>
       </c>
       <c r="F19">
         <v>46.41</v>
@@ -1440,7 +1437,7 @@
         <v>0.58</v>
       </c>
       <c r="E20">
-        <v>-68.27</v>
+        <v>-68.03</v>
       </c>
       <c r="F20">
         <v>49.53</v>
@@ -1481,7 +1478,7 @@
         <v>-0.1</v>
       </c>
       <c r="E21">
-        <v>-63.91</v>
+        <v>-63.77</v>
       </c>
       <c r="F21">
         <v>48.1</v>
@@ -1516,19 +1513,19 @@
         <v>62</v>
       </c>
       <c r="C22">
-        <v>69.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="D22">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="E22">
-        <v>-78.98999999999999</v>
+        <v>-78.75</v>
       </c>
       <c r="F22">
-        <v>64.16</v>
+        <v>64.31</v>
       </c>
       <c r="G22">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="J22">
         <v>50.74</v>
@@ -1540,7 +1537,7 @@
         <v>64.54000000000001</v>
       </c>
       <c r="M22">
-        <v>50.92</v>
+        <v>50.93</v>
       </c>
       <c r="N22">
         <v>60.89</v>
@@ -1557,28 +1554,28 @@
         <v>62</v>
       </c>
       <c r="C23">
-        <v>24.14</v>
+        <v>24.22</v>
       </c>
       <c r="D23">
-        <v>-0.58</v>
+        <v>-0.25</v>
       </c>
       <c r="E23">
-        <v>-79.37</v>
+        <v>-78.87</v>
       </c>
       <c r="F23">
-        <v>66.47</v>
+        <v>66.88</v>
       </c>
       <c r="G23">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="J23">
-        <v>21.11</v>
+        <v>21.12</v>
       </c>
       <c r="K23">
-        <v>21.66</v>
+        <v>21.67</v>
       </c>
       <c r="L23">
-        <v>22.04</v>
+        <v>22.05</v>
       </c>
       <c r="M23">
         <v>21.59</v>
@@ -1645,7 +1642,7 @@
         <v>-0.38</v>
       </c>
       <c r="E25">
-        <v>-64.87</v>
+        <v>-64.45999999999999</v>
       </c>
       <c r="F25">
         <v>65.08</v>
@@ -1686,7 +1683,7 @@
         <v>0.37</v>
       </c>
       <c r="E26">
-        <v>-55.45</v>
+        <v>-55.3</v>
       </c>
       <c r="F26">
         <v>53.34</v>
@@ -1698,7 +1695,7 @@
         <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J26">
         <v>8.02</v>
@@ -1745,7 +1742,7 @@
         <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J27">
         <v>919.3200000000001</v>
@@ -1774,19 +1771,19 @@
         <v>62</v>
       </c>
       <c r="C28">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="D28">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="E28">
-        <v>-42.6</v>
+        <v>-41.76</v>
       </c>
       <c r="F28">
-        <v>42.79</v>
+        <v>42.41</v>
       </c>
       <c r="G28">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="J28">
         <v>118.24</v>
@@ -1795,13 +1792,13 @@
         <v>117.83</v>
       </c>
       <c r="L28">
-        <v>105.33</v>
+        <v>105.32</v>
       </c>
       <c r="M28">
         <v>118.32</v>
       </c>
       <c r="N28">
-        <v>118.91</v>
+        <v>118.9</v>
       </c>
       <c r="O28">
         <v>106.21</v>
@@ -1821,7 +1818,7 @@
         <v>-0.34</v>
       </c>
       <c r="E29">
-        <v>-46.47</v>
+        <v>-46.15</v>
       </c>
       <c r="F29">
         <v>40.22</v>
@@ -1856,16 +1853,16 @@
         <v>62</v>
       </c>
       <c r="C30">
-        <v>10.64</v>
+        <v>10.63</v>
       </c>
       <c r="D30">
-        <v>-1.3</v>
+        <v>-1.39</v>
       </c>
       <c r="E30">
-        <v>-64.25</v>
+        <v>-64.11</v>
       </c>
       <c r="F30">
-        <v>48.91</v>
+        <v>48.8</v>
       </c>
       <c r="G30">
         <v>-0.09</v>
@@ -1903,7 +1900,7 @@
         <v>-0.87</v>
       </c>
       <c r="E31">
-        <v>-83.08</v>
+        <v>-82.98999999999999</v>
       </c>
       <c r="F31">
         <v>58.38</v>
@@ -1938,25 +1935,19 @@
         <v>62</v>
       </c>
       <c r="C32">
-        <v>217.4</v>
+        <v>216.2</v>
       </c>
       <c r="D32">
-        <v>2.11</v>
+        <v>1.55</v>
       </c>
       <c r="E32">
-        <v>-57.95</v>
+        <v>-57.49</v>
       </c>
       <c r="F32">
-        <v>69.03</v>
+        <v>68.7</v>
       </c>
       <c r="G32">
-        <v>-0.87</v>
-      </c>
-      <c r="H32" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" t="s">
-        <v>77</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="J32">
         <v>109.44</v>
@@ -1965,7 +1956,7 @@
         <v>111.89</v>
       </c>
       <c r="L32">
-        <v>212.15</v>
+        <v>212.09</v>
       </c>
       <c r="M32">
         <v>108.89</v>
@@ -1985,16 +1976,16 @@
         <v>62</v>
       </c>
       <c r="C33">
-        <v>105.94</v>
+        <v>105.92</v>
       </c>
       <c r="D33">
-        <v>4.65</v>
+        <v>4.63</v>
       </c>
       <c r="E33">
-        <v>-45.89</v>
+        <v>-45.42</v>
       </c>
       <c r="F33">
-        <v>82.47</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="G33">
         <v>0.93</v>
@@ -2006,10 +1997,10 @@
         <v>79.37</v>
       </c>
       <c r="L33">
-        <v>85.56</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="M33">
-        <v>71.43000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="N33">
         <v>81.70999999999999</v>
@@ -2032,7 +2023,7 @@
         <v>3.09</v>
       </c>
       <c r="E34">
-        <v>85.14</v>
+        <v>87.03</v>
       </c>
       <c r="F34">
         <v>54.66</v>
@@ -2041,10 +2032,10 @@
         <v>-0.01</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J34">
         <v>15.67</v>
@@ -2079,7 +2070,7 @@
         <v>-0.98</v>
       </c>
       <c r="E35">
-        <v>-56.51</v>
+        <v>-56.16</v>
       </c>
       <c r="F35">
         <v>53.56</v>
@@ -2114,25 +2105,25 @@
         <v>62</v>
       </c>
       <c r="C36">
-        <v>15.73</v>
+        <v>15.71</v>
       </c>
       <c r="D36">
-        <v>-3.02</v>
+        <v>-3.14</v>
       </c>
       <c r="E36">
-        <v>-69.03</v>
+        <v>-68.84999999999999</v>
       </c>
       <c r="F36">
-        <v>46.74</v>
+        <v>46.51</v>
       </c>
       <c r="G36">
         <v>0.03</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J36">
         <v>19.58</v>
@@ -2167,7 +2158,7 @@
         <v>-0.73</v>
       </c>
       <c r="E37">
-        <v>-45.09</v>
+        <v>-44.97</v>
       </c>
       <c r="F37">
         <v>40.43</v>
@@ -2208,7 +2199,7 @@
         <v>-0.46</v>
       </c>
       <c r="E38">
-        <v>-75.20999999999999</v>
+        <v>-75.13</v>
       </c>
       <c r="F38">
         <v>40.2</v>
@@ -2249,7 +2240,7 @@
         <v>1.4</v>
       </c>
       <c r="E39">
-        <v>-27.67</v>
+        <v>-27.47</v>
       </c>
       <c r="F39">
         <v>48.55</v>
@@ -2258,10 +2249,10 @@
         <v>-0.14</v>
       </c>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J39">
         <v>22.46</v>
@@ -2290,22 +2281,22 @@
         <v>62</v>
       </c>
       <c r="C40">
-        <v>70.15000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="D40">
-        <v>-1.82</v>
+        <v>-1.75</v>
       </c>
       <c r="E40">
-        <v>-69.39</v>
+        <v>-69.17</v>
       </c>
       <c r="F40">
-        <v>58.58</v>
+        <v>58.71</v>
       </c>
       <c r="G40">
         <v>0.3</v>
       </c>
       <c r="J40">
-        <v>61.81</v>
+        <v>61.82</v>
       </c>
       <c r="K40">
         <v>66.19</v>
@@ -2331,28 +2322,28 @@
         <v>62</v>
       </c>
       <c r="C41">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="D41">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="E41">
-        <v>-46.78</v>
+        <v>-46.64</v>
       </c>
       <c r="F41">
-        <v>47.85</v>
+        <v>47.6</v>
       </c>
       <c r="G41">
         <v>-0.25</v>
       </c>
       <c r="J41">
-        <v>114.3</v>
+        <v>114.29</v>
       </c>
       <c r="K41">
         <v>110.83</v>
       </c>
       <c r="L41">
-        <v>106.7</v>
+        <v>106.69</v>
       </c>
       <c r="M41">
         <v>117.11</v>
@@ -2372,19 +2363,19 @@
         <v>62</v>
       </c>
       <c r="C42">
-        <v>37.3</v>
+        <v>37.34</v>
       </c>
       <c r="D42">
-        <v>5.85</v>
+        <v>5.96</v>
       </c>
       <c r="E42">
-        <v>-40.3</v>
+        <v>-40.07</v>
       </c>
       <c r="F42">
-        <v>62.67</v>
+        <v>62.78</v>
       </c>
       <c r="G42">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="J42">
         <v>32.03</v>
@@ -2413,25 +2404,25 @@
         <v>62</v>
       </c>
       <c r="C43">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="D43">
-        <v>0.21</v>
+        <v>0.57</v>
       </c>
       <c r="E43">
-        <v>-77.05</v>
+        <v>-76.88</v>
       </c>
       <c r="F43">
-        <v>58.32</v>
+        <v>58.99</v>
       </c>
       <c r="G43">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J43">
         <v>28.99</v>
@@ -2449,7 +2440,7 @@
         <v>27.49</v>
       </c>
       <c r="O43">
-        <v>27.98</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2460,25 +2451,25 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="D44">
-        <v>-3.17</v>
+        <v>-3.43</v>
       </c>
       <c r="E44">
-        <v>-68.22</v>
+        <v>-67.73999999999999</v>
       </c>
       <c r="F44">
-        <v>63.64</v>
+        <v>63.21</v>
       </c>
       <c r="G44">
         <v>0.04</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J44">
         <v>3.18</v>
@@ -2513,7 +2504,7 @@
         <v>-1.47</v>
       </c>
       <c r="E45">
-        <v>-63.97</v>
+        <v>-63.9</v>
       </c>
       <c r="F45">
         <v>39.14</v>
@@ -2554,7 +2545,7 @@
         <v>-2.48</v>
       </c>
       <c r="E46">
-        <v>-60.56</v>
+        <v>-60.49</v>
       </c>
       <c r="F46">
         <v>22.74</v>
@@ -2595,7 +2586,7 @@
         <v>1.37</v>
       </c>
       <c r="E47">
-        <v>-24.83</v>
+        <v>-24.25</v>
       </c>
       <c r="F47">
         <v>71.73</v>
@@ -2630,19 +2621,19 @@
         <v>62</v>
       </c>
       <c r="C48">
-        <v>59.3</v>
+        <v>59.15</v>
       </c>
       <c r="D48">
-        <v>1.11</v>
+        <v>0.85</v>
       </c>
       <c r="E48">
-        <v>-50.14</v>
+        <v>-49.25</v>
       </c>
       <c r="F48">
-        <v>71.75</v>
+        <v>71.22</v>
       </c>
       <c r="G48">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="J48">
         <v>56.26</v>
@@ -2654,7 +2645,7 @@
         <v>55.16</v>
       </c>
       <c r="M48">
-        <v>55.6</v>
+        <v>55.59</v>
       </c>
       <c r="N48">
         <v>55.49</v>

--- a/Avwap_Tarama_050126.xlsx
+++ b/Avwap_Tarama_050126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Hisse</t>
   </si>
@@ -217,12 +217,18 @@
     <t>Aşağı Kırılım(L1)</t>
   </si>
   <si>
+    <t>Aşağı Kırılım(H2)</t>
+  </si>
+  <si>
     <t>Yukarı Kırılım(H3)</t>
   </si>
   <si>
     <t>Aşağı Kırılım(H3)</t>
   </si>
   <si>
+    <t>Destek Retest(H3)</t>
+  </si>
+  <si>
     <t>Yukarı Kırılım(H2,H3,L2,L3)</t>
   </si>
   <si>
@@ -244,13 +250,13 @@
     <t>DOWN</t>
   </si>
   <si>
+    <t>SupportRetest</t>
+  </si>
+  <si>
     <t>StrongUP</t>
   </si>
   <si>
     <t>StrongDOWN</t>
-  </si>
-  <si>
-    <t>SupportRetest</t>
   </si>
 </sst>
 </file>
@@ -669,19 +675,19 @@
         <v>62</v>
       </c>
       <c r="C2">
-        <v>12.82</v>
+        <v>12.9</v>
       </c>
       <c r="D2">
-        <v>-0.08</v>
+        <v>0.55</v>
       </c>
       <c r="E2">
-        <v>-75.38</v>
+        <v>-74.86</v>
       </c>
       <c r="F2">
-        <v>65.11</v>
+        <v>65.86</v>
       </c>
       <c r="G2">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J2">
         <v>12.53</v>
@@ -690,7 +696,7 @@
         <v>12.31</v>
       </c>
       <c r="L2">
-        <v>11.79</v>
+        <v>11.8</v>
       </c>
       <c r="M2">
         <v>12.38</v>
@@ -710,16 +716,16 @@
         <v>62</v>
       </c>
       <c r="C3">
-        <v>29.66</v>
+        <v>29.68</v>
       </c>
       <c r="D3">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>-22.62</v>
+        <v>-20.81</v>
       </c>
       <c r="F3">
-        <v>51.99</v>
+        <v>52.17</v>
       </c>
       <c r="G3">
         <v>0.07000000000000001</v>
@@ -728,7 +734,7 @@
         <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3">
         <v>30.31</v>
@@ -737,7 +743,7 @@
         <v>30.34</v>
       </c>
       <c r="L3">
-        <v>29.49</v>
+        <v>29.5</v>
       </c>
       <c r="M3">
         <v>30.27</v>
@@ -757,43 +763,43 @@
         <v>62</v>
       </c>
       <c r="C4">
-        <v>104.3</v>
+        <v>104.6</v>
       </c>
       <c r="D4">
-        <v>5.25</v>
+        <v>5.55</v>
       </c>
       <c r="E4">
-        <v>455.27</v>
+        <v>481.57</v>
       </c>
       <c r="F4">
-        <v>57.87</v>
+        <v>58.48</v>
       </c>
       <c r="G4">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4">
         <v>113.48</v>
       </c>
       <c r="K4">
-        <v>106.21</v>
+        <v>106.22</v>
       </c>
       <c r="L4">
-        <v>101.7</v>
+        <v>101.78</v>
       </c>
       <c r="M4">
-        <v>106.63</v>
+        <v>106.64</v>
       </c>
       <c r="N4">
-        <v>102.02</v>
+        <v>102.08</v>
       </c>
       <c r="O4">
-        <v>102.11</v>
+        <v>102.37</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -804,25 +810,25 @@
         <v>62</v>
       </c>
       <c r="C5">
-        <v>35.04</v>
+        <v>34.94</v>
       </c>
       <c r="D5">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="E5">
-        <v>-14.52</v>
+        <v>-13.05</v>
       </c>
       <c r="F5">
-        <v>66.62</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="G5">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="H5" t="s">
         <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5">
         <v>34.52</v>
@@ -831,7 +837,7 @@
         <v>32.82</v>
       </c>
       <c r="L5">
-        <v>32.5</v>
+        <v>32.49</v>
       </c>
       <c r="M5">
         <v>32.38</v>
@@ -840,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="O5">
-        <v>32.86</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -851,25 +857,25 @@
         <v>62</v>
       </c>
       <c r="C6">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="D6">
-        <v>-0.65</v>
+        <v>-1.3</v>
       </c>
       <c r="E6">
-        <v>-17.59</v>
+        <v>-16.65</v>
       </c>
       <c r="F6">
-        <v>33.92</v>
+        <v>33.49</v>
       </c>
       <c r="G6">
         <v>0.03</v>
       </c>
       <c r="J6">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="K6">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="L6">
         <v>2.16</v>
@@ -898,7 +904,7 @@
         <v>-0.85</v>
       </c>
       <c r="E7">
-        <v>-33.45</v>
+        <v>-29.82</v>
       </c>
       <c r="F7">
         <v>43.67</v>
@@ -913,7 +919,7 @@
         <v>46.14</v>
       </c>
       <c r="L7">
-        <v>45.54</v>
+        <v>45.53</v>
       </c>
       <c r="M7">
         <v>47.64</v>
@@ -922,7 +928,7 @@
         <v>46.37</v>
       </c>
       <c r="O7">
-        <v>45.56</v>
+        <v>45.55</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -933,16 +939,16 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>16.05</v>
+        <v>16.04</v>
       </c>
       <c r="D8">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>-43.59</v>
+        <v>-41.38</v>
       </c>
       <c r="F8">
-        <v>53.54</v>
+        <v>53.39</v>
       </c>
       <c r="G8">
         <v>-0.08</v>
@@ -974,16 +980,16 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <v>13.11</v>
+        <v>13.1</v>
       </c>
       <c r="D9">
-        <v>-0.15</v>
+        <v>-0.23</v>
       </c>
       <c r="E9">
-        <v>-73.56</v>
+        <v>-70.90000000000001</v>
       </c>
       <c r="F9">
-        <v>46.76</v>
+        <v>46.32</v>
       </c>
       <c r="G9">
         <v>-0.03</v>
@@ -992,7 +998,7 @@
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J9">
         <v>13.1</v>
@@ -1021,37 +1027,43 @@
         <v>62</v>
       </c>
       <c r="C10">
-        <v>211.4</v>
+        <v>210.5</v>
       </c>
       <c r="D10">
-        <v>-1.9</v>
+        <v>-2.32</v>
       </c>
       <c r="E10">
-        <v>-73.42</v>
+        <v>-69.86</v>
       </c>
       <c r="F10">
-        <v>46.02</v>
+        <v>45.26</v>
       </c>
       <c r="G10">
-        <v>-0.6899999999999999</v>
+        <v>-0.75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
       </c>
       <c r="J10">
-        <v>192.69</v>
+        <v>192.7</v>
       </c>
       <c r="K10">
-        <v>210.52</v>
+        <v>210.51</v>
       </c>
       <c r="L10">
-        <v>216.97</v>
+        <v>216.86</v>
       </c>
       <c r="M10">
-        <v>189.35</v>
+        <v>189.36</v>
       </c>
       <c r="N10">
         <v>198.56</v>
       </c>
       <c r="O10">
-        <v>217.69</v>
+        <v>217.64</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1062,16 +1074,16 @@
         <v>62</v>
       </c>
       <c r="C11">
-        <v>29.7</v>
+        <v>29.72</v>
       </c>
       <c r="D11">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="E11">
-        <v>-32.93</v>
+        <v>-30.95</v>
       </c>
       <c r="F11">
-        <v>61.48</v>
+        <v>61.64</v>
       </c>
       <c r="G11">
         <v>-0.07000000000000001</v>
@@ -1083,7 +1095,7 @@
         <v>27.22</v>
       </c>
       <c r="L11">
-        <v>29.1</v>
+        <v>29.11</v>
       </c>
       <c r="M11">
         <v>27.86</v>
@@ -1103,19 +1115,19 @@
         <v>62</v>
       </c>
       <c r="C12">
-        <v>6.23</v>
+        <v>6.43</v>
       </c>
       <c r="D12">
-        <v>-1.42</v>
+        <v>1.74</v>
       </c>
       <c r="E12">
-        <v>-75.34999999999999</v>
+        <v>-69.15000000000001</v>
       </c>
       <c r="F12">
-        <v>38.31</v>
+        <v>43.02</v>
       </c>
       <c r="G12">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="J12">
         <v>7.07</v>
@@ -1133,7 +1145,7 @@
         <v>7.03</v>
       </c>
       <c r="O12">
-        <v>6.66</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1144,25 +1156,25 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>22.08</v>
+        <v>22.06</v>
       </c>
       <c r="D13">
-        <v>-1.69</v>
+        <v>-1.78</v>
       </c>
       <c r="E13">
-        <v>-50.69</v>
+        <v>-47.21</v>
       </c>
       <c r="F13">
-        <v>30.26</v>
+        <v>30.15</v>
       </c>
       <c r="G13">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="J13">
         <v>28.75</v>
       </c>
       <c r="K13">
-        <v>25.37</v>
+        <v>25.36</v>
       </c>
       <c r="L13">
         <v>24.76</v>
@@ -1185,16 +1197,16 @@
         <v>62</v>
       </c>
       <c r="C14">
-        <v>17.13</v>
+        <v>17.15</v>
       </c>
       <c r="D14">
-        <v>4.58</v>
+        <v>4.7</v>
       </c>
       <c r="E14">
-        <v>-44.22</v>
+        <v>-43.28</v>
       </c>
       <c r="F14">
-        <v>66.08</v>
+        <v>66.19</v>
       </c>
       <c r="G14">
         <v>0.12</v>
@@ -1226,19 +1238,19 @@
         <v>62</v>
       </c>
       <c r="C15">
-        <v>73.05</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D15">
-        <v>-0.61</v>
+        <v>-0.82</v>
       </c>
       <c r="E15">
-        <v>-31.79</v>
+        <v>-29.64</v>
       </c>
       <c r="F15">
-        <v>67.42</v>
+        <v>66.63</v>
       </c>
       <c r="G15">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="J15">
         <v>62.92</v>
@@ -1247,7 +1259,7 @@
         <v>64.44</v>
       </c>
       <c r="L15">
-        <v>70.98</v>
+        <v>70.97</v>
       </c>
       <c r="M15">
         <v>63.17</v>
@@ -1267,28 +1279,28 @@
         <v>62</v>
       </c>
       <c r="C16">
-        <v>158.2</v>
+        <v>158.4</v>
       </c>
       <c r="D16">
-        <v>-2.22</v>
+        <v>-2.1</v>
       </c>
       <c r="E16">
-        <v>-30.08</v>
+        <v>-28.25</v>
       </c>
       <c r="F16">
-        <v>60.17</v>
+        <v>60.5</v>
       </c>
       <c r="G16">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="J16">
-        <v>138.64</v>
+        <v>138.65</v>
       </c>
       <c r="K16">
-        <v>141.15</v>
+        <v>141.16</v>
       </c>
       <c r="L16">
-        <v>162.14</v>
+        <v>162.15</v>
       </c>
       <c r="M16">
         <v>138.57</v>
@@ -1308,16 +1320,16 @@
         <v>62</v>
       </c>
       <c r="C17">
-        <v>11.32</v>
+        <v>11.31</v>
       </c>
       <c r="D17">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="E17">
-        <v>-12.7</v>
+        <v>-9.56</v>
       </c>
       <c r="F17">
-        <v>48.64</v>
+        <v>48.49</v>
       </c>
       <c r="G17">
         <v>-0.06</v>
@@ -1355,7 +1367,7 @@
         <v>-0.39</v>
       </c>
       <c r="E18">
-        <v>-37.94</v>
+        <v>-34.72</v>
       </c>
       <c r="F18">
         <v>34.68</v>
@@ -1396,7 +1408,7 @@
         <v>-0.18</v>
       </c>
       <c r="E19">
-        <v>-67.23</v>
+        <v>-65.53</v>
       </c>
       <c r="F19">
         <v>46.41</v>
@@ -1431,16 +1443,16 @@
         <v>62</v>
       </c>
       <c r="C20">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="D20">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
       <c r="E20">
-        <v>-68.03</v>
+        <v>-66.95</v>
       </c>
       <c r="F20">
-        <v>49.53</v>
+        <v>49.95</v>
       </c>
       <c r="G20">
         <v>-0.04</v>
@@ -1472,16 +1484,16 @@
         <v>62</v>
       </c>
       <c r="C21">
-        <v>10.1</v>
+        <v>10.09</v>
       </c>
       <c r="D21">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="E21">
-        <v>-63.77</v>
+        <v>-62.34</v>
       </c>
       <c r="F21">
-        <v>48.1</v>
+        <v>47.83</v>
       </c>
       <c r="G21">
         <v>0.05</v>
@@ -1513,19 +1525,19 @@
         <v>62</v>
       </c>
       <c r="C22">
-        <v>69.2</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
       <c r="E22">
-        <v>-78.75</v>
+        <v>-77.09999999999999</v>
       </c>
       <c r="F22">
-        <v>64.31</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="G22">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="J22">
         <v>50.74</v>
@@ -1540,7 +1552,7 @@
         <v>50.93</v>
       </c>
       <c r="N22">
-        <v>60.89</v>
+        <v>60.9</v>
       </c>
       <c r="O22">
         <v>66.44</v>
@@ -1554,19 +1566,19 @@
         <v>62</v>
       </c>
       <c r="C23">
-        <v>24.22</v>
+        <v>24.1</v>
       </c>
       <c r="D23">
-        <v>-0.25</v>
+        <v>-0.74</v>
       </c>
       <c r="E23">
-        <v>-78.87</v>
+        <v>-77.25</v>
       </c>
       <c r="F23">
-        <v>66.88</v>
+        <v>66.27</v>
       </c>
       <c r="G23">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="J23">
         <v>21.12</v>
@@ -1578,7 +1590,7 @@
         <v>22.05</v>
       </c>
       <c r="M23">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="N23">
         <v>21.97</v>
@@ -1601,7 +1613,7 @@
         <v>-1.08</v>
       </c>
       <c r="E24">
-        <v>-51.92</v>
+        <v>-50.26</v>
       </c>
       <c r="F24">
         <v>38.81</v>
@@ -1642,7 +1654,7 @@
         <v>-0.38</v>
       </c>
       <c r="E25">
-        <v>-64.45999999999999</v>
+        <v>-63.34</v>
       </c>
       <c r="F25">
         <v>65.08</v>
@@ -1651,22 +1663,22 @@
         <v>-0.19</v>
       </c>
       <c r="J25">
-        <v>99.78</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="K25">
         <v>101.57</v>
       </c>
       <c r="L25">
-        <v>103.97</v>
+        <v>103.98</v>
       </c>
       <c r="M25">
         <v>94.62</v>
       </c>
       <c r="N25">
-        <v>100.61</v>
+        <v>100.62</v>
       </c>
       <c r="O25">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1677,28 +1689,28 @@
         <v>62</v>
       </c>
       <c r="C26">
-        <v>8.130000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D26">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="E26">
-        <v>-55.3</v>
+        <v>-53.22</v>
       </c>
       <c r="F26">
-        <v>53.34</v>
+        <v>52.98</v>
       </c>
       <c r="G26">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26">
-        <v>8.02</v>
+        <v>8.01</v>
       </c>
       <c r="K26">
         <v>8.02</v>
@@ -1724,43 +1736,43 @@
         <v>62</v>
       </c>
       <c r="C27">
-        <v>856.5</v>
+        <v>857</v>
       </c>
       <c r="D27">
-        <v>-1.38</v>
+        <v>-1.32</v>
       </c>
       <c r="E27">
-        <v>-45.49</v>
+        <v>-41.18</v>
       </c>
       <c r="F27">
-        <v>43.11</v>
+        <v>43.3</v>
       </c>
       <c r="G27">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J27">
-        <v>919.3200000000001</v>
+        <v>919.29</v>
       </c>
       <c r="K27">
-        <v>884.95</v>
+        <v>884.9299999999999</v>
       </c>
       <c r="L27">
-        <v>866.88</v>
+        <v>866.86</v>
       </c>
       <c r="M27">
-        <v>900.41</v>
+        <v>900.39</v>
       </c>
       <c r="N27">
-        <v>868.45</v>
+        <v>868.4400000000001</v>
       </c>
       <c r="O27">
-        <v>855.29</v>
+        <v>855.4</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1777,7 +1789,7 @@
         <v>0.19</v>
       </c>
       <c r="E28">
-        <v>-41.76</v>
+        <v>-38.42</v>
       </c>
       <c r="F28">
         <v>42.41</v>
@@ -1786,10 +1798,10 @@
         <v>0.1</v>
       </c>
       <c r="J28">
-        <v>118.24</v>
+        <v>118.23</v>
       </c>
       <c r="K28">
-        <v>117.83</v>
+        <v>117.82</v>
       </c>
       <c r="L28">
         <v>105.32</v>
@@ -1812,16 +1824,16 @@
         <v>62</v>
       </c>
       <c r="C29">
-        <v>41.16</v>
+        <v>41.1</v>
       </c>
       <c r="D29">
-        <v>-0.34</v>
+        <v>-0.48</v>
       </c>
       <c r="E29">
-        <v>-46.15</v>
+        <v>-41.72</v>
       </c>
       <c r="F29">
-        <v>40.22</v>
+        <v>39.89</v>
       </c>
       <c r="G29">
         <v>-0.19</v>
@@ -1853,16 +1865,16 @@
         <v>62</v>
       </c>
       <c r="C30">
-        <v>10.63</v>
+        <v>10.6</v>
       </c>
       <c r="D30">
-        <v>-1.39</v>
+        <v>-1.67</v>
       </c>
       <c r="E30">
-        <v>-64.11</v>
+        <v>-60.72</v>
       </c>
       <c r="F30">
-        <v>48.8</v>
+        <v>48.46</v>
       </c>
       <c r="G30">
         <v>-0.09</v>
@@ -1894,19 +1906,19 @@
         <v>62</v>
       </c>
       <c r="C31">
-        <v>18.31</v>
+        <v>18.25</v>
       </c>
       <c r="D31">
-        <v>-0.87</v>
+        <v>-1.19</v>
       </c>
       <c r="E31">
-        <v>-82.98999999999999</v>
+        <v>-80.36</v>
       </c>
       <c r="F31">
-        <v>58.38</v>
+        <v>57.63</v>
       </c>
       <c r="G31">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J31">
         <v>19.45</v>
@@ -1915,7 +1927,7 @@
         <v>19.32</v>
       </c>
       <c r="L31">
-        <v>18.15</v>
+        <v>18.14</v>
       </c>
       <c r="M31">
         <v>19.66</v>
@@ -1924,7 +1936,7 @@
         <v>17.09</v>
       </c>
       <c r="O31">
-        <v>18.08</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1935,37 +1947,43 @@
         <v>62</v>
       </c>
       <c r="C32">
-        <v>216.2</v>
+        <v>215.4</v>
       </c>
       <c r="D32">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="E32">
-        <v>-57.49</v>
+        <v>-28.91</v>
       </c>
       <c r="F32">
-        <v>68.7</v>
+        <v>68.48</v>
       </c>
       <c r="G32">
-        <v>-0.9399999999999999</v>
+        <v>-1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>78</v>
       </c>
       <c r="J32">
-        <v>109.44</v>
+        <v>109.59</v>
       </c>
       <c r="K32">
-        <v>111.89</v>
+        <v>112.06</v>
       </c>
       <c r="L32">
-        <v>212.09</v>
+        <v>212.16</v>
       </c>
       <c r="M32">
-        <v>108.89</v>
+        <v>109.04</v>
       </c>
       <c r="N32">
-        <v>110.64</v>
+        <v>110.8</v>
       </c>
       <c r="O32">
-        <v>129.23</v>
+        <v>129.48</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1976,37 +1994,37 @@
         <v>62</v>
       </c>
       <c r="C33">
-        <v>105.92</v>
+        <v>105.84</v>
       </c>
       <c r="D33">
-        <v>4.63</v>
+        <v>4.55</v>
       </c>
       <c r="E33">
-        <v>-45.42</v>
+        <v>-41.7</v>
       </c>
       <c r="F33">
-        <v>82.45999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G33">
         <v>0.93</v>
       </c>
       <c r="J33">
-        <v>69.77</v>
+        <v>69.78</v>
       </c>
       <c r="K33">
-        <v>79.37</v>
+        <v>79.39</v>
       </c>
       <c r="L33">
-        <v>85.56999999999999</v>
+        <v>85.59</v>
       </c>
       <c r="M33">
-        <v>71.44</v>
+        <v>71.45</v>
       </c>
       <c r="N33">
-        <v>81.70999999999999</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="O33">
-        <v>88.13</v>
+        <v>88.16</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2017,25 +2035,25 @@
         <v>62</v>
       </c>
       <c r="C34">
-        <v>15.37</v>
+        <v>15.36</v>
       </c>
       <c r="D34">
-        <v>3.09</v>
+        <v>3.02</v>
       </c>
       <c r="E34">
-        <v>87.03</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="F34">
-        <v>54.66</v>
+        <v>54.54</v>
       </c>
       <c r="G34">
         <v>-0.01</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J34">
         <v>15.67</v>
@@ -2064,19 +2082,19 @@
         <v>62</v>
       </c>
       <c r="C35">
-        <v>26.2</v>
+        <v>26.22</v>
       </c>
       <c r="D35">
-        <v>-0.98</v>
+        <v>-0.91</v>
       </c>
       <c r="E35">
-        <v>-56.16</v>
+        <v>-54.55</v>
       </c>
       <c r="F35">
-        <v>53.56</v>
+        <v>53.71</v>
       </c>
       <c r="G35">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="J35">
         <v>29.26</v>
@@ -2105,25 +2123,25 @@
         <v>62</v>
       </c>
       <c r="C36">
-        <v>15.71</v>
+        <v>15.7</v>
       </c>
       <c r="D36">
-        <v>-3.14</v>
+        <v>-3.21</v>
       </c>
       <c r="E36">
-        <v>-68.84999999999999</v>
+        <v>-68.26000000000001</v>
       </c>
       <c r="F36">
-        <v>46.51</v>
+        <v>46.39</v>
       </c>
       <c r="G36">
         <v>0.03</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J36">
         <v>19.58</v>
@@ -2152,16 +2170,16 @@
         <v>62</v>
       </c>
       <c r="C37">
-        <v>10.92</v>
+        <v>10.93</v>
       </c>
       <c r="D37">
-        <v>-0.73</v>
+        <v>-0.64</v>
       </c>
       <c r="E37">
-        <v>-44.97</v>
+        <v>-40.25</v>
       </c>
       <c r="F37">
-        <v>40.43</v>
+        <v>40.63</v>
       </c>
       <c r="G37">
         <v>-0.03</v>
@@ -2193,16 +2211,16 @@
         <v>62</v>
       </c>
       <c r="C38">
-        <v>96.75</v>
+        <v>96.7</v>
       </c>
       <c r="D38">
-        <v>-0.46</v>
+        <v>-0.51</v>
       </c>
       <c r="E38">
-        <v>-75.13</v>
+        <v>-73.01000000000001</v>
       </c>
       <c r="F38">
-        <v>40.2</v>
+        <v>40.11</v>
       </c>
       <c r="G38">
         <v>-1.17</v>
@@ -2214,7 +2232,7 @@
         <v>100.21</v>
       </c>
       <c r="L38">
-        <v>99.91</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M38">
         <v>98.95</v>
@@ -2223,7 +2241,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="O38">
-        <v>100.15</v>
+        <v>100.14</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2234,25 +2252,25 @@
         <v>62</v>
       </c>
       <c r="C39">
-        <v>23.2</v>
+        <v>23.16</v>
       </c>
       <c r="D39">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="E39">
-        <v>-27.47</v>
+        <v>-25.48</v>
       </c>
       <c r="F39">
-        <v>48.55</v>
+        <v>47.83</v>
       </c>
       <c r="G39">
         <v>-0.14</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J39">
         <v>22.46</v>
@@ -2261,7 +2279,7 @@
         <v>23.08</v>
       </c>
       <c r="L39">
-        <v>23.48</v>
+        <v>23.47</v>
       </c>
       <c r="M39">
         <v>22.44</v>
@@ -2281,19 +2299,19 @@
         <v>62</v>
       </c>
       <c r="C40">
-        <v>70.2</v>
+        <v>69.95</v>
       </c>
       <c r="D40">
-        <v>-1.75</v>
+        <v>-2.1</v>
       </c>
       <c r="E40">
-        <v>-69.17</v>
+        <v>-68.09</v>
       </c>
       <c r="F40">
-        <v>58.71</v>
+        <v>58.09</v>
       </c>
       <c r="G40">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="J40">
         <v>61.82</v>
@@ -2302,7 +2320,7 @@
         <v>66.19</v>
       </c>
       <c r="L40">
-        <v>68.81</v>
+        <v>68.8</v>
       </c>
       <c r="M40">
         <v>61.35</v>
@@ -2322,16 +2340,16 @@
         <v>62</v>
       </c>
       <c r="C41">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D41">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="E41">
-        <v>-46.64</v>
+        <v>-45.63</v>
       </c>
       <c r="F41">
-        <v>47.6</v>
+        <v>47.85</v>
       </c>
       <c r="G41">
         <v>-0.25</v>
@@ -2363,19 +2381,19 @@
         <v>62</v>
       </c>
       <c r="C42">
-        <v>37.34</v>
+        <v>37.1</v>
       </c>
       <c r="D42">
-        <v>5.96</v>
+        <v>5.28</v>
       </c>
       <c r="E42">
-        <v>-40.07</v>
+        <v>-38.43</v>
       </c>
       <c r="F42">
-        <v>62.78</v>
+        <v>62.12</v>
       </c>
       <c r="G42">
-        <v>-0.22</v>
+        <v>-0.24</v>
       </c>
       <c r="J42">
         <v>32.03</v>
@@ -2384,7 +2402,7 @@
         <v>32.82</v>
       </c>
       <c r="L42">
-        <v>34.83</v>
+        <v>34.82</v>
       </c>
       <c r="M42">
         <v>31.94</v>
@@ -2404,22 +2422,22 @@
         <v>62</v>
       </c>
       <c r="C43">
-        <v>28.4</v>
+        <v>28.36</v>
       </c>
       <c r="D43">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="E43">
-        <v>-76.88</v>
+        <v>-76.33</v>
       </c>
       <c r="F43">
-        <v>58.99</v>
+        <v>58.73</v>
       </c>
       <c r="G43">
         <v>0.22</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s">
         <v>78</v>
@@ -2451,25 +2469,25 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="D44">
-        <v>-3.43</v>
+        <v>-2.9</v>
       </c>
       <c r="E44">
-        <v>-67.73999999999999</v>
+        <v>-65.61</v>
       </c>
       <c r="F44">
-        <v>63.21</v>
+        <v>64.08</v>
       </c>
       <c r="G44">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J44">
         <v>3.18</v>
@@ -2498,28 +2516,28 @@
         <v>62</v>
       </c>
       <c r="C45">
-        <v>37.44</v>
+        <v>37.54</v>
       </c>
       <c r="D45">
-        <v>-1.47</v>
+        <v>-1.21</v>
       </c>
       <c r="E45">
-        <v>-63.9</v>
+        <v>-57.78</v>
       </c>
       <c r="F45">
-        <v>39.14</v>
+        <v>39.46</v>
       </c>
       <c r="G45">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="J45">
         <v>43.52</v>
       </c>
       <c r="K45">
-        <v>44.43</v>
+        <v>44.42</v>
       </c>
       <c r="L45">
-        <v>40.69</v>
+        <v>40.68</v>
       </c>
       <c r="M45">
         <v>43.12</v>
@@ -2545,7 +2563,7 @@
         <v>-2.48</v>
       </c>
       <c r="E46">
-        <v>-60.49</v>
+        <v>-59.65</v>
       </c>
       <c r="F46">
         <v>22.74</v>
@@ -2580,37 +2598,37 @@
         <v>62</v>
       </c>
       <c r="C47">
-        <v>118.8</v>
+        <v>118.9</v>
       </c>
       <c r="D47">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="E47">
-        <v>-24.25</v>
+        <v>-19.35</v>
       </c>
       <c r="F47">
-        <v>71.73</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="G47">
         <v>0.33</v>
       </c>
       <c r="J47">
-        <v>104.17</v>
+        <v>104.18</v>
       </c>
       <c r="K47">
-        <v>104.27</v>
+        <v>104.29</v>
       </c>
       <c r="L47">
-        <v>106.92</v>
+        <v>106.93</v>
       </c>
       <c r="M47">
-        <v>103.41</v>
+        <v>103.42</v>
       </c>
       <c r="N47">
-        <v>102.64</v>
+        <v>102.66</v>
       </c>
       <c r="O47">
-        <v>105.37</v>
+        <v>105.39</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2621,19 +2639,19 @@
         <v>62</v>
       </c>
       <c r="C48">
-        <v>59.15</v>
+        <v>59.05</v>
       </c>
       <c r="D48">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="E48">
-        <v>-49.25</v>
+        <v>-47.03</v>
       </c>
       <c r="F48">
-        <v>71.22</v>
+        <v>70.87</v>
       </c>
       <c r="G48">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="J48">
         <v>56.26</v>
@@ -2645,7 +2663,7 @@
         <v>55.16</v>
       </c>
       <c r="M48">
-        <v>55.59</v>
+        <v>55.6</v>
       </c>
       <c r="N48">
         <v>55.49</v>
